--- a/results/tables_formatted.xlsx
+++ b/results/tables_formatted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\3. PhD\WQE\WQE II\gmh_econ\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293D6370-6563-49B2-80CE-0C70AA92EBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979B2EBF-D21A-4E4D-A935-9B07D5DC0175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14235" yWindow="5790" windowWidth="19425" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -358,12 +358,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -398,6 +392,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -453,40 +453,40 @@
             <v>upper_percent_GBD 2019</v>
           </cell>
           <cell r="J1" t="str">
-            <v>val_number_Revised - 2016 reallocation method</v>
+            <v>val_number_2016 reallocation method</v>
           </cell>
           <cell r="K1" t="str">
-            <v>lower_number_Revised - 2016 reallocation method</v>
+            <v>lower_number_2016 reallocation method</v>
           </cell>
           <cell r="L1" t="str">
-            <v>upper_number_Revised - 2016 reallocation method</v>
+            <v>upper_number_2016 reallocation method</v>
           </cell>
           <cell r="M1" t="str">
-            <v>val_percent_Revised - 2016 reallocation method</v>
+            <v>val_percent_2016 reallocation method</v>
           </cell>
           <cell r="N1" t="str">
-            <v>lower_percent_Revised - 2016 reallocation method</v>
+            <v>lower_percent_2016 reallocation method</v>
           </cell>
           <cell r="O1" t="str">
-            <v>upper_percent_Revised - 2016 reallocation method</v>
+            <v>upper_percent_2016 reallocation method</v>
           </cell>
           <cell r="P1" t="str">
-            <v>val_number_Revised - Composite method</v>
+            <v>val_number_Composite method</v>
           </cell>
           <cell r="Q1" t="str">
-            <v>lower_number_Revised - Composite method</v>
+            <v>lower_number_Composite method</v>
           </cell>
           <cell r="R1" t="str">
-            <v>upper_number_Revised - Composite method</v>
+            <v>upper_number_Composite method</v>
           </cell>
           <cell r="S1" t="str">
-            <v>val_percent_Revised - Composite method</v>
+            <v>val_percent_Composite method</v>
           </cell>
           <cell r="T1" t="str">
-            <v>lower_percent_Revised - Composite method</v>
+            <v>lower_percent_Composite method</v>
           </cell>
           <cell r="U1" t="str">
-            <v>upper_percent_Revised - Composite method</v>
+            <v>upper_percent_Composite method</v>
           </cell>
         </row>
         <row r="2">
@@ -515,40 +515,40 @@
             <v>5.8</v>
           </cell>
           <cell r="J2">
-            <v>300.7</v>
+            <v>321.2</v>
           </cell>
           <cell r="K2">
-            <v>158.6</v>
+            <v>198.6</v>
           </cell>
           <cell r="L2">
-            <v>521.29999999999995</v>
+            <v>505.2</v>
           </cell>
           <cell r="M2">
-            <v>11.8</v>
+            <v>12.7</v>
           </cell>
           <cell r="N2">
-            <v>6.9</v>
+            <v>8.6999999999999993</v>
           </cell>
           <cell r="O2">
-            <v>18.600000000000001</v>
+            <v>18</v>
           </cell>
           <cell r="P2">
-            <v>408.8</v>
+            <v>417.7</v>
           </cell>
           <cell r="Q2">
-            <v>248.9</v>
+            <v>276.7</v>
           </cell>
           <cell r="R2">
-            <v>635.20000000000005</v>
+            <v>608.4</v>
           </cell>
           <cell r="S2">
-            <v>16.100000000000001</v>
+            <v>16.5</v>
           </cell>
           <cell r="T2">
-            <v>10.9</v>
+            <v>12.1</v>
           </cell>
           <cell r="U2">
-            <v>22.6</v>
+            <v>21.6</v>
           </cell>
         </row>
         <row r="3">
@@ -577,40 +577,40 @@
             <v>7.6</v>
           </cell>
           <cell r="J3">
-            <v>66.099999999999994</v>
+            <v>74.400000000000006</v>
           </cell>
           <cell r="K3">
-            <v>32.9</v>
+            <v>46.2</v>
           </cell>
           <cell r="L3">
-            <v>119.3</v>
+            <v>117.9</v>
           </cell>
           <cell r="M3">
-            <v>18</v>
+            <v>20.3</v>
           </cell>
           <cell r="N3">
-            <v>10.3</v>
+            <v>14.4</v>
           </cell>
           <cell r="O3">
-            <v>28.4</v>
+            <v>28.1</v>
           </cell>
           <cell r="P3">
-            <v>77.900000000000006</v>
+            <v>81</v>
           </cell>
           <cell r="Q3">
-            <v>44.7</v>
+            <v>52.8</v>
           </cell>
           <cell r="R3">
-            <v>126.8</v>
+            <v>120.3</v>
           </cell>
           <cell r="S3">
-            <v>21.2</v>
+            <v>22.1</v>
           </cell>
           <cell r="T3">
-            <v>13.9</v>
+            <v>16.5</v>
           </cell>
           <cell r="U3">
-            <v>30.2</v>
+            <v>28.7</v>
           </cell>
         </row>
         <row r="4">
@@ -639,40 +639,40 @@
             <v>6.4</v>
           </cell>
           <cell r="J4">
-            <v>110</v>
+            <v>117.5</v>
           </cell>
           <cell r="K4">
-            <v>54.6</v>
+            <v>69.5</v>
           </cell>
           <cell r="L4">
-            <v>198.2</v>
+            <v>191.6</v>
           </cell>
           <cell r="M4">
-            <v>13.4</v>
+            <v>14.3</v>
           </cell>
           <cell r="N4">
-            <v>7.6</v>
+            <v>9.6999999999999993</v>
           </cell>
           <cell r="O4">
-            <v>21.2</v>
+            <v>20.5</v>
           </cell>
           <cell r="P4">
-            <v>152.9</v>
+            <v>156.6</v>
           </cell>
           <cell r="Q4">
-            <v>88.3</v>
+            <v>99.3</v>
           </cell>
           <cell r="R4">
-            <v>246.4</v>
+            <v>236.2</v>
           </cell>
           <cell r="S4">
-            <v>18.7</v>
+            <v>19.100000000000001</v>
           </cell>
           <cell r="T4">
-            <v>12.4</v>
+            <v>13.9</v>
           </cell>
           <cell r="U4">
-            <v>26.4</v>
+            <v>25.3</v>
           </cell>
         </row>
         <row r="5">
@@ -701,40 +701,40 @@
             <v>4.9000000000000004</v>
           </cell>
           <cell r="J5">
-            <v>105.1</v>
+            <v>108.8</v>
           </cell>
           <cell r="K5">
-            <v>55.3</v>
+            <v>65</v>
           </cell>
           <cell r="L5">
-            <v>180.8</v>
+            <v>174.1</v>
           </cell>
           <cell r="M5">
-            <v>10</v>
+            <v>10.4</v>
           </cell>
           <cell r="N5">
-            <v>6</v>
+            <v>7.1</v>
           </cell>
           <cell r="O5">
-            <v>15.1</v>
+            <v>14.6</v>
           </cell>
           <cell r="P5">
-            <v>145.9</v>
+            <v>147.4</v>
           </cell>
           <cell r="Q5">
-            <v>82.9</v>
+            <v>90.2</v>
           </cell>
           <cell r="R5">
-            <v>234.6</v>
+            <v>225.7</v>
           </cell>
           <cell r="S5">
-            <v>13.9</v>
+            <v>14.1</v>
           </cell>
           <cell r="T5">
-            <v>9</v>
+            <v>9.8000000000000007</v>
           </cell>
           <cell r="U5">
-            <v>19.600000000000001</v>
+            <v>18.899999999999999</v>
           </cell>
         </row>
         <row r="6">
@@ -763,40 +763,40 @@
             <v>3.8</v>
           </cell>
           <cell r="J6">
-            <v>19.399999999999999</v>
+            <v>20.3</v>
           </cell>
           <cell r="K6">
-            <v>10.5</v>
+            <v>12</v>
           </cell>
           <cell r="L6">
-            <v>32.9</v>
+            <v>32.6</v>
           </cell>
           <cell r="M6">
-            <v>6.4</v>
+            <v>6.7</v>
           </cell>
           <cell r="N6">
-            <v>4.0999999999999996</v>
+            <v>4.5999999999999996</v>
           </cell>
           <cell r="O6">
             <v>9.3000000000000007</v>
           </cell>
           <cell r="P6">
-            <v>31.7</v>
+            <v>32.299999999999997</v>
           </cell>
           <cell r="Q6">
-            <v>18.600000000000001</v>
+            <v>19.8</v>
           </cell>
           <cell r="R6">
-            <v>50.5</v>
+            <v>49.9</v>
           </cell>
           <cell r="S6">
-            <v>10.5</v>
+            <v>10.7</v>
           </cell>
           <cell r="T6">
-            <v>7.2</v>
+            <v>7.7</v>
           </cell>
           <cell r="U6">
-            <v>14.3</v>
+            <v>14.2</v>
           </cell>
         </row>
         <row r="7">
@@ -825,40 +825,40 @@
             <v>3.5</v>
           </cell>
           <cell r="J7">
-            <v>31.4</v>
+            <v>32.700000000000003</v>
           </cell>
           <cell r="K7">
-            <v>16.7</v>
+            <v>19.100000000000001</v>
           </cell>
           <cell r="L7">
-            <v>53.6</v>
+            <v>52.9</v>
           </cell>
           <cell r="M7">
-            <v>6.2</v>
+            <v>6.4</v>
           </cell>
           <cell r="N7">
-            <v>3.8</v>
+            <v>4.4000000000000004</v>
           </cell>
           <cell r="O7">
+            <v>9</v>
+          </cell>
+          <cell r="P7">
+            <v>46.4</v>
+          </cell>
+          <cell r="Q7">
+            <v>28</v>
+          </cell>
+          <cell r="R7">
+            <v>72.5</v>
+          </cell>
+          <cell r="S7">
             <v>9.1</v>
           </cell>
-          <cell r="P7">
-            <v>45.3</v>
-          </cell>
-          <cell r="Q7">
-            <v>25.9</v>
-          </cell>
-          <cell r="R7">
-            <v>73.5</v>
-          </cell>
-          <cell r="S7">
-            <v>8.9</v>
-          </cell>
           <cell r="T7">
-            <v>5.9</v>
+            <v>6.4</v>
           </cell>
           <cell r="U7">
-            <v>12.5</v>
+            <v>12.3</v>
           </cell>
         </row>
         <row r="8">
@@ -887,40 +887,40 @@
             <v>6.2</v>
           </cell>
           <cell r="J8">
-            <v>25.8</v>
+            <v>26.9</v>
           </cell>
           <cell r="K8">
-            <v>13.2</v>
+            <v>15.5</v>
           </cell>
           <cell r="L8">
-            <v>45</v>
+            <v>43.9</v>
           </cell>
           <cell r="M8">
-            <v>10.7</v>
+            <v>11.1</v>
           </cell>
           <cell r="N8">
-            <v>6.3</v>
+            <v>7.4</v>
           </cell>
           <cell r="O8">
-            <v>16.100000000000001</v>
+            <v>15.7</v>
           </cell>
           <cell r="P8">
-            <v>40.4</v>
+            <v>41</v>
           </cell>
           <cell r="Q8">
-            <v>23.8</v>
+            <v>25.6</v>
           </cell>
           <cell r="R8">
-            <v>64.400000000000006</v>
+            <v>62.8</v>
           </cell>
           <cell r="S8">
-            <v>16.7</v>
+            <v>17</v>
           </cell>
           <cell r="T8">
-            <v>11.4</v>
+            <v>12.2</v>
           </cell>
           <cell r="U8">
-            <v>23.1</v>
+            <v>22.5</v>
           </cell>
         </row>
         <row r="9">
@@ -949,40 +949,40 @@
             <v>6.6</v>
           </cell>
           <cell r="J9">
-            <v>46.5</v>
+            <v>51.8</v>
           </cell>
           <cell r="K9">
-            <v>24.1</v>
+            <v>31.9</v>
           </cell>
           <cell r="L9">
             <v>82.9</v>
           </cell>
           <cell r="M9">
-            <v>15.4</v>
+            <v>17.100000000000001</v>
           </cell>
           <cell r="N9">
-            <v>9.1</v>
+            <v>12.1</v>
           </cell>
           <cell r="O9">
             <v>23.9</v>
           </cell>
           <cell r="P9">
-            <v>58.3</v>
+            <v>60.2</v>
           </cell>
           <cell r="Q9">
-            <v>34.1</v>
+            <v>38.700000000000003</v>
           </cell>
           <cell r="R9">
-            <v>93.7</v>
+            <v>90.3</v>
           </cell>
           <cell r="S9">
-            <v>19.2</v>
+            <v>19.899999999999999</v>
           </cell>
           <cell r="T9">
-            <v>12.9</v>
+            <v>14.6</v>
           </cell>
           <cell r="U9">
-            <v>27</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="10">
@@ -1011,40 +1011,40 @@
             <v>7.7</v>
           </cell>
           <cell r="J10">
-            <v>48.1</v>
+            <v>56.1</v>
           </cell>
           <cell r="K10">
-            <v>24.1</v>
+            <v>35.4</v>
           </cell>
           <cell r="L10">
-            <v>85.7</v>
+            <v>87.3</v>
           </cell>
           <cell r="M10">
-            <v>15.8</v>
+            <v>18.399999999999999</v>
           </cell>
           <cell r="N10">
-            <v>9</v>
+            <v>13.3</v>
           </cell>
           <cell r="O10">
-            <v>24.6</v>
+            <v>25.1</v>
           </cell>
           <cell r="P10">
-            <v>66.599999999999994</v>
+            <v>70</v>
           </cell>
           <cell r="Q10">
-            <v>39.799999999999997</v>
+            <v>46.4</v>
           </cell>
           <cell r="R10">
-            <v>105.4</v>
+            <v>102.6</v>
           </cell>
           <cell r="S10">
-            <v>21.8</v>
+            <v>23</v>
           </cell>
           <cell r="T10">
-            <v>14.9</v>
+            <v>17.399999999999999</v>
           </cell>
           <cell r="U10">
-            <v>30.3</v>
+            <v>29.5</v>
           </cell>
         </row>
         <row r="11">
@@ -1073,40 +1073,40 @@
             <v>5.4</v>
           </cell>
           <cell r="J11">
-            <v>75.7</v>
+            <v>77.400000000000006</v>
           </cell>
           <cell r="K11">
-            <v>39.700000000000003</v>
+            <v>46.4</v>
           </cell>
           <cell r="L11">
-            <v>130.5</v>
+            <v>123.5</v>
           </cell>
           <cell r="M11">
-            <v>11.6</v>
+            <v>11.9</v>
           </cell>
           <cell r="N11">
-            <v>6.9</v>
+            <v>8.1</v>
           </cell>
           <cell r="O11">
-            <v>17.600000000000001</v>
+            <v>16.7</v>
           </cell>
           <cell r="P11">
-            <v>103.7</v>
+            <v>104.1</v>
           </cell>
           <cell r="Q11">
-            <v>58.6</v>
+            <v>64</v>
           </cell>
           <cell r="R11">
-            <v>166.7</v>
+            <v>158.5</v>
           </cell>
           <cell r="S11">
             <v>15.9</v>
           </cell>
           <cell r="T11">
-            <v>10.199999999999999</v>
+            <v>11.1</v>
           </cell>
           <cell r="U11">
-            <v>22.5</v>
+            <v>21.4</v>
           </cell>
         </row>
         <row r="12">
@@ -1135,40 +1135,40 @@
             <v>6</v>
           </cell>
           <cell r="J12">
-            <v>72</v>
+            <v>75</v>
           </cell>
           <cell r="K12">
-            <v>34.9</v>
+            <v>43.6</v>
           </cell>
           <cell r="L12">
-            <v>131.6</v>
+            <v>123.9</v>
           </cell>
           <cell r="M12">
-            <v>13.8</v>
+            <v>14.4</v>
           </cell>
           <cell r="N12">
-            <v>7.7</v>
+            <v>9.6999999999999993</v>
           </cell>
           <cell r="O12">
-            <v>22.2</v>
+            <v>20.9</v>
           </cell>
           <cell r="P12">
-            <v>92.8</v>
+            <v>94.4</v>
           </cell>
           <cell r="Q12">
-            <v>51.7</v>
+            <v>58.9</v>
           </cell>
           <cell r="R12">
-            <v>152.4</v>
+            <v>143.4</v>
           </cell>
           <cell r="S12">
-            <v>17.8</v>
+            <v>18.100000000000001</v>
           </cell>
           <cell r="T12">
-            <v>11.4</v>
+            <v>13</v>
           </cell>
           <cell r="U12">
-            <v>25.7</v>
+            <v>24.2</v>
           </cell>
         </row>
         <row r="13">
@@ -1197,22 +1197,22 @@
             <v>0</v>
           </cell>
           <cell r="J13">
-            <v>2.9</v>
+            <v>3.2</v>
           </cell>
           <cell r="K13">
-            <v>1.5</v>
+            <v>1.8</v>
           </cell>
           <cell r="L13">
+            <v>5.9</v>
+          </cell>
+          <cell r="M13">
             <v>5.6</v>
           </cell>
-          <cell r="M13">
-            <v>5.0999999999999996</v>
-          </cell>
           <cell r="N13">
-            <v>2.8</v>
+            <v>3.3</v>
           </cell>
           <cell r="O13">
-            <v>9.5</v>
+            <v>9.9</v>
           </cell>
           <cell r="P13">
             <v>5.9</v>
@@ -1259,22 +1259,22 @@
             <v>0</v>
           </cell>
           <cell r="J14">
-            <v>1</v>
+            <v>1.1000000000000001</v>
           </cell>
           <cell r="K14">
-            <v>0.5</v>
+            <v>0.6</v>
           </cell>
           <cell r="L14">
-            <v>2.1</v>
+            <v>2.2000000000000002</v>
           </cell>
           <cell r="M14">
-            <v>9.1</v>
+            <v>10.199999999999999</v>
           </cell>
           <cell r="N14">
-            <v>4.2</v>
+            <v>5.3</v>
           </cell>
           <cell r="O14">
-            <v>18.2</v>
+            <v>19.100000000000001</v>
           </cell>
           <cell r="P14">
             <v>1.4</v>
@@ -1321,22 +1321,22 @@
             <v>0</v>
           </cell>
           <cell r="J15">
-            <v>1</v>
+            <v>1.1000000000000001</v>
           </cell>
           <cell r="K15">
-            <v>0.5</v>
+            <v>0.6</v>
           </cell>
           <cell r="L15">
-            <v>2.2000000000000002</v>
+            <v>2.2999999999999998</v>
           </cell>
           <cell r="M15">
-            <v>5</v>
+            <v>5.4</v>
           </cell>
           <cell r="N15">
-            <v>2.7</v>
+            <v>3.1</v>
           </cell>
           <cell r="O15">
-            <v>9.1</v>
+            <v>9.6</v>
           </cell>
           <cell r="P15">
             <v>2.2999999999999998</v>
@@ -1383,22 +1383,22 @@
             <v>0</v>
           </cell>
           <cell r="J16">
-            <v>0.7</v>
+            <v>0.8</v>
           </cell>
           <cell r="K16">
-            <v>0.4</v>
+            <v>0.5</v>
           </cell>
           <cell r="L16">
-            <v>1.3</v>
+            <v>1.4</v>
           </cell>
           <cell r="M16">
-            <v>3.7</v>
+            <v>3.9</v>
           </cell>
           <cell r="N16">
-            <v>2.4</v>
+            <v>2.7</v>
           </cell>
           <cell r="O16">
-            <v>6</v>
+            <v>6.2</v>
           </cell>
           <cell r="P16">
             <v>1.9</v>
@@ -1454,13 +1454,13 @@
             <v>0.2</v>
           </cell>
           <cell r="M17">
-            <v>2.2000000000000002</v>
+            <v>2.4</v>
           </cell>
           <cell r="N17">
-            <v>1.4</v>
+            <v>1.5</v>
           </cell>
           <cell r="O17">
-            <v>3.6</v>
+            <v>3.8</v>
           </cell>
           <cell r="P17">
             <v>0.4</v>
@@ -1516,13 +1516,13 @@
             <v>0.3</v>
           </cell>
           <cell r="M18">
-            <v>2.2999999999999998</v>
+            <v>2.4</v>
           </cell>
           <cell r="N18">
-            <v>1.4</v>
+            <v>1.5</v>
           </cell>
           <cell r="O18">
-            <v>3.7</v>
+            <v>3.8</v>
           </cell>
           <cell r="P18">
             <v>0.5</v>
@@ -1578,13 +1578,13 @@
             <v>0.3</v>
           </cell>
           <cell r="M19">
-            <v>3</v>
+            <v>3.3</v>
           </cell>
           <cell r="N19">
-            <v>1.7</v>
+            <v>1.9</v>
           </cell>
           <cell r="O19">
-            <v>5.3</v>
+            <v>5.6</v>
           </cell>
           <cell r="P19">
             <v>0.5</v>
@@ -1634,19 +1634,19 @@
             <v>0.7</v>
           </cell>
           <cell r="K20">
-            <v>0.3</v>
+            <v>0.4</v>
           </cell>
           <cell r="L20">
-            <v>1.4</v>
+            <v>1.5</v>
           </cell>
           <cell r="M20">
-            <v>7</v>
+            <v>7.9</v>
           </cell>
           <cell r="N20">
-            <v>3.6</v>
+            <v>4.4000000000000004</v>
           </cell>
           <cell r="O20">
-            <v>13.5</v>
+            <v>14.4</v>
           </cell>
           <cell r="P20">
             <v>1.1000000000000001</v>
@@ -1693,22 +1693,22 @@
             <v>0</v>
           </cell>
           <cell r="J21">
-            <v>0.5</v>
+            <v>0.6</v>
           </cell>
           <cell r="K21">
-            <v>0.2</v>
+            <v>0.3</v>
           </cell>
           <cell r="L21">
-            <v>1</v>
+            <v>1.1000000000000001</v>
           </cell>
           <cell r="M21">
-            <v>6.7</v>
+            <v>8.1</v>
           </cell>
           <cell r="N21">
-            <v>3.4</v>
+            <v>4.9000000000000004</v>
           </cell>
           <cell r="O21">
-            <v>12.8</v>
+            <v>14.1</v>
           </cell>
           <cell r="P21">
             <v>1</v>
@@ -1758,19 +1758,19 @@
             <v>0.6</v>
           </cell>
           <cell r="K22">
-            <v>0.3</v>
+            <v>0.4</v>
           </cell>
           <cell r="L22">
             <v>1</v>
           </cell>
           <cell r="M22">
-            <v>4.0999999999999996</v>
+            <v>4.3</v>
           </cell>
           <cell r="N22">
-            <v>2.7</v>
+            <v>3</v>
           </cell>
           <cell r="O22">
-            <v>6.7</v>
+            <v>6.8</v>
           </cell>
           <cell r="P22">
             <v>1.4</v>
@@ -1826,13 +1826,13 @@
             <v>1.8</v>
           </cell>
           <cell r="M23">
-            <v>6.1</v>
+            <v>6.3</v>
           </cell>
           <cell r="N23">
-            <v>3.1</v>
+            <v>3.3</v>
           </cell>
           <cell r="O23">
-            <v>11.2</v>
+            <v>11.4</v>
           </cell>
           <cell r="P23">
             <v>1.5</v>
@@ -1879,40 +1879,40 @@
             <v>14.7</v>
           </cell>
           <cell r="J24">
-            <v>238.3</v>
+            <v>247.2</v>
           </cell>
           <cell r="K24">
-            <v>112.3</v>
+            <v>140.19999999999999</v>
           </cell>
           <cell r="L24">
-            <v>427.9</v>
+            <v>401</v>
           </cell>
           <cell r="M24">
-            <v>27.7</v>
+            <v>28.7</v>
           </cell>
           <cell r="N24">
-            <v>17.5</v>
+            <v>21.9</v>
           </cell>
           <cell r="O24">
-            <v>38.700000000000003</v>
+            <v>36.200000000000003</v>
           </cell>
           <cell r="P24">
-            <v>238.3</v>
+            <v>247.2</v>
           </cell>
           <cell r="Q24">
-            <v>112.3</v>
+            <v>140.19999999999999</v>
           </cell>
           <cell r="R24">
-            <v>427.9</v>
+            <v>401</v>
           </cell>
           <cell r="S24">
-            <v>27.7</v>
+            <v>28.7</v>
           </cell>
           <cell r="T24">
-            <v>17.5</v>
+            <v>21.9</v>
           </cell>
           <cell r="U24">
-            <v>38.700000000000003</v>
+            <v>36.200000000000003</v>
           </cell>
         </row>
         <row r="25">
@@ -1941,40 +1941,40 @@
             <v>14.3</v>
           </cell>
           <cell r="J25">
-            <v>50.8</v>
+            <v>53.9</v>
           </cell>
           <cell r="K25">
-            <v>22.6</v>
+            <v>30.7</v>
           </cell>
           <cell r="L25">
-            <v>94</v>
+            <v>87.5</v>
           </cell>
           <cell r="M25">
-            <v>29.3</v>
+            <v>31.1</v>
           </cell>
           <cell r="N25">
-            <v>17.5</v>
+            <v>23.7</v>
           </cell>
           <cell r="O25">
-            <v>42.1</v>
+            <v>39.200000000000003</v>
           </cell>
           <cell r="P25">
-            <v>50.8</v>
+            <v>53.9</v>
           </cell>
           <cell r="Q25">
-            <v>22.6</v>
+            <v>30.7</v>
           </cell>
           <cell r="R25">
-            <v>94</v>
+            <v>87.5</v>
           </cell>
           <cell r="S25">
-            <v>29.3</v>
+            <v>31.1</v>
           </cell>
           <cell r="T25">
-            <v>17.5</v>
+            <v>23.7</v>
           </cell>
           <cell r="U25">
-            <v>42.1</v>
+            <v>39.200000000000003</v>
           </cell>
         </row>
         <row r="26">
@@ -2003,40 +2003,40 @@
             <v>14.6</v>
           </cell>
           <cell r="J26">
-            <v>89.2</v>
+            <v>92.8</v>
           </cell>
           <cell r="K26">
-            <v>40.9</v>
+            <v>51.9</v>
           </cell>
           <cell r="L26">
-            <v>162.9</v>
+            <v>152.6</v>
           </cell>
           <cell r="M26">
-            <v>28.3</v>
+            <v>29.5</v>
           </cell>
           <cell r="N26">
-            <v>17.399999999999999</v>
+            <v>22.1</v>
           </cell>
           <cell r="O26">
-            <v>39.9</v>
+            <v>37.4</v>
           </cell>
           <cell r="P26">
-            <v>89.2</v>
+            <v>92.8</v>
           </cell>
           <cell r="Q26">
-            <v>40.9</v>
+            <v>51.9</v>
           </cell>
           <cell r="R26">
-            <v>162.9</v>
+            <v>152.6</v>
           </cell>
           <cell r="S26">
-            <v>28.3</v>
+            <v>29.5</v>
           </cell>
           <cell r="T26">
-            <v>17.399999999999999</v>
+            <v>22.1</v>
           </cell>
           <cell r="U26">
-            <v>39.9</v>
+            <v>37.4</v>
           </cell>
         </row>
         <row r="27">
@@ -2065,40 +2065,40 @@
             <v>14.6</v>
           </cell>
           <cell r="J27">
-            <v>82</v>
+            <v>83.5</v>
           </cell>
           <cell r="K27">
-            <v>38.299999999999997</v>
+            <v>45.6</v>
           </cell>
           <cell r="L27">
-            <v>147.69999999999999</v>
+            <v>138.69999999999999</v>
           </cell>
           <cell r="M27">
-            <v>26.4</v>
+            <v>26.9</v>
           </cell>
           <cell r="N27">
-            <v>16.600000000000001</v>
+            <v>19.8</v>
           </cell>
           <cell r="O27">
-            <v>36.6</v>
+            <v>34.4</v>
           </cell>
           <cell r="P27">
-            <v>82</v>
+            <v>83.5</v>
           </cell>
           <cell r="Q27">
-            <v>38.299999999999997</v>
+            <v>45.6</v>
           </cell>
           <cell r="R27">
-            <v>147.69999999999999</v>
+            <v>138.69999999999999</v>
           </cell>
           <cell r="S27">
-            <v>26.4</v>
+            <v>26.9</v>
           </cell>
           <cell r="T27">
-            <v>16.600000000000001</v>
+            <v>19.8</v>
           </cell>
           <cell r="U27">
-            <v>36.6</v>
+            <v>34.4</v>
           </cell>
         </row>
         <row r="28">
@@ -2127,40 +2127,40 @@
             <v>16.7</v>
           </cell>
           <cell r="J28">
-            <v>16.2</v>
+            <v>16.8</v>
           </cell>
           <cell r="K28">
-            <v>8.1999999999999993</v>
+            <v>9.4</v>
           </cell>
           <cell r="L28">
-            <v>28</v>
+            <v>27.5</v>
           </cell>
           <cell r="M28">
-            <v>26.3</v>
+            <v>27.3</v>
           </cell>
           <cell r="N28">
-            <v>18.2</v>
+            <v>20.8</v>
           </cell>
           <cell r="O28">
-            <v>34.9</v>
+            <v>34.1</v>
           </cell>
           <cell r="P28">
-            <v>16.2</v>
+            <v>16.8</v>
           </cell>
           <cell r="Q28">
-            <v>8.1999999999999993</v>
+            <v>9.4</v>
           </cell>
           <cell r="R28">
-            <v>28</v>
+            <v>27.5</v>
           </cell>
           <cell r="S28">
-            <v>26.3</v>
+            <v>27.3</v>
           </cell>
           <cell r="T28">
-            <v>18.2</v>
+            <v>20.8</v>
           </cell>
           <cell r="U28">
-            <v>34.9</v>
+            <v>34.1</v>
           </cell>
         </row>
         <row r="29">
@@ -2189,40 +2189,40 @@
             <v>15.7</v>
           </cell>
           <cell r="J29">
-            <v>25.9</v>
+            <v>27</v>
           </cell>
           <cell r="K29">
-            <v>13</v>
+            <v>15</v>
           </cell>
           <cell r="L29">
-            <v>45.4</v>
+            <v>44.4</v>
           </cell>
           <cell r="M29">
-            <v>25.7</v>
+            <v>26.7</v>
           </cell>
           <cell r="N29">
-            <v>17.399999999999999</v>
+            <v>20.100000000000001</v>
           </cell>
           <cell r="O29">
-            <v>34.4</v>
+            <v>33.6</v>
           </cell>
           <cell r="P29">
-            <v>25.9</v>
+            <v>27</v>
           </cell>
           <cell r="Q29">
-            <v>13</v>
+            <v>15</v>
           </cell>
           <cell r="R29">
-            <v>45.4</v>
+            <v>44.4</v>
           </cell>
           <cell r="S29">
-            <v>25.7</v>
+            <v>26.7</v>
           </cell>
           <cell r="T29">
-            <v>17.399999999999999</v>
+            <v>20.100000000000001</v>
           </cell>
           <cell r="U29">
-            <v>34.4</v>
+            <v>33.6</v>
           </cell>
         </row>
         <row r="30">
@@ -2251,40 +2251,40 @@
             <v>18.7</v>
           </cell>
           <cell r="J30">
-            <v>22.1</v>
+            <v>22.7</v>
           </cell>
           <cell r="K30">
-            <v>10.9</v>
+            <v>12.6</v>
           </cell>
           <cell r="L30">
-            <v>39</v>
+            <v>37.4</v>
           </cell>
           <cell r="M30">
-            <v>31</v>
+            <v>31.8</v>
           </cell>
           <cell r="N30">
-            <v>20.6</v>
+            <v>23.9</v>
           </cell>
           <cell r="O30">
-            <v>42</v>
+            <v>40.299999999999997</v>
           </cell>
           <cell r="P30">
-            <v>22.1</v>
+            <v>22.7</v>
           </cell>
           <cell r="Q30">
-            <v>10.9</v>
+            <v>12.6</v>
           </cell>
           <cell r="R30">
-            <v>39</v>
+            <v>37.4</v>
           </cell>
           <cell r="S30">
-            <v>31</v>
+            <v>31.8</v>
           </cell>
           <cell r="T30">
-            <v>20.6</v>
+            <v>23.9</v>
           </cell>
           <cell r="U30">
-            <v>42</v>
+            <v>40.299999999999997</v>
           </cell>
         </row>
         <row r="31">
@@ -2313,40 +2313,40 @@
             <v>14.6</v>
           </cell>
           <cell r="J31">
-            <v>35.1</v>
+            <v>37</v>
           </cell>
           <cell r="K31">
-            <v>16.3</v>
+            <v>20.9</v>
           </cell>
           <cell r="L31">
-            <v>64.099999999999994</v>
+            <v>60.7</v>
           </cell>
           <cell r="M31">
-            <v>29</v>
+            <v>30.5</v>
           </cell>
           <cell r="N31">
-            <v>18.100000000000001</v>
+            <v>23.2</v>
           </cell>
           <cell r="O31">
-            <v>40.9</v>
+            <v>38.700000000000003</v>
           </cell>
           <cell r="P31">
-            <v>35.1</v>
+            <v>37</v>
           </cell>
           <cell r="Q31">
-            <v>16.3</v>
+            <v>20.9</v>
           </cell>
           <cell r="R31">
-            <v>64.099999999999994</v>
+            <v>60.7</v>
           </cell>
           <cell r="S31">
-            <v>29</v>
+            <v>30.5</v>
           </cell>
           <cell r="T31">
-            <v>18.100000000000001</v>
+            <v>23.2</v>
           </cell>
           <cell r="U31">
-            <v>40.9</v>
+            <v>38.700000000000003</v>
           </cell>
         </row>
         <row r="32">
@@ -2375,40 +2375,40 @@
             <v>15.9</v>
           </cell>
           <cell r="J32">
-            <v>39.1</v>
+            <v>42.6</v>
           </cell>
           <cell r="K32">
-            <v>17.8</v>
+            <v>24.4</v>
           </cell>
           <cell r="L32">
-            <v>71.400000000000006</v>
+            <v>68.5</v>
           </cell>
           <cell r="M32">
-            <v>30</v>
+            <v>32.700000000000003</v>
           </cell>
           <cell r="N32">
-            <v>18.3</v>
+            <v>25.1</v>
           </cell>
           <cell r="O32">
+            <v>40.9</v>
+          </cell>
+          <cell r="P32">
             <v>42.6</v>
           </cell>
-          <cell r="P32">
-            <v>39.1</v>
-          </cell>
           <cell r="Q32">
-            <v>17.8</v>
+            <v>24.4</v>
           </cell>
           <cell r="R32">
-            <v>71.400000000000006</v>
+            <v>68.5</v>
           </cell>
           <cell r="S32">
-            <v>30</v>
+            <v>32.700000000000003</v>
           </cell>
           <cell r="T32">
-            <v>18.3</v>
+            <v>25.1</v>
           </cell>
           <cell r="U32">
-            <v>42.6</v>
+            <v>40.9</v>
           </cell>
         </row>
         <row r="33">
@@ -2437,40 +2437,40 @@
             <v>13.8</v>
           </cell>
           <cell r="J33">
-            <v>58.3</v>
+            <v>58.7</v>
           </cell>
           <cell r="K33">
-            <v>26.5</v>
+            <v>31.8</v>
           </cell>
           <cell r="L33">
-            <v>106</v>
+            <v>97.8</v>
           </cell>
           <cell r="M33">
-            <v>26</v>
+            <v>26.1</v>
           </cell>
           <cell r="N33">
-            <v>15.9</v>
+            <v>19.100000000000001</v>
           </cell>
           <cell r="O33">
-            <v>36.4</v>
+            <v>33.6</v>
           </cell>
           <cell r="P33">
-            <v>58.3</v>
+            <v>58.7</v>
           </cell>
           <cell r="Q33">
-            <v>26.5</v>
+            <v>31.8</v>
           </cell>
           <cell r="R33">
-            <v>106</v>
+            <v>97.8</v>
           </cell>
           <cell r="S33">
-            <v>26</v>
+            <v>26.1</v>
           </cell>
           <cell r="T33">
-            <v>15.9</v>
+            <v>19.100000000000001</v>
           </cell>
           <cell r="U33">
-            <v>36.4</v>
+            <v>33.6</v>
           </cell>
         </row>
         <row r="34">
@@ -2499,40 +2499,40 @@
             <v>13.2</v>
           </cell>
           <cell r="J34">
-            <v>56.8</v>
+            <v>58.3</v>
           </cell>
           <cell r="K34">
-            <v>25.3</v>
+            <v>32.6</v>
           </cell>
           <cell r="L34">
-            <v>105.2</v>
+            <v>96.2</v>
           </cell>
           <cell r="M34">
-            <v>27.1</v>
+            <v>27.9</v>
           </cell>
           <cell r="N34">
-            <v>16.2</v>
+            <v>20.8</v>
           </cell>
           <cell r="O34">
-            <v>38.799999999999997</v>
+            <v>35.4</v>
           </cell>
           <cell r="P34">
-            <v>56.8</v>
+            <v>58.3</v>
           </cell>
           <cell r="Q34">
-            <v>25.3</v>
+            <v>32.6</v>
           </cell>
           <cell r="R34">
-            <v>105.2</v>
+            <v>96.2</v>
           </cell>
           <cell r="S34">
-            <v>27.1</v>
+            <v>27.9</v>
           </cell>
           <cell r="T34">
-            <v>16.2</v>
+            <v>20.8</v>
           </cell>
           <cell r="U34">
-            <v>38.799999999999997</v>
+            <v>35.4</v>
           </cell>
         </row>
         <row r="35">
@@ -2561,22 +2561,22 @@
             <v>0</v>
           </cell>
           <cell r="J35">
-            <v>62.4</v>
+            <v>74</v>
           </cell>
           <cell r="K35">
-            <v>43.8</v>
+            <v>55</v>
           </cell>
           <cell r="L35">
-            <v>97.4</v>
+            <v>108.6</v>
           </cell>
           <cell r="M35">
-            <v>3.7</v>
+            <v>4.4000000000000004</v>
           </cell>
           <cell r="N35">
-            <v>2.8</v>
+            <v>3.5</v>
           </cell>
           <cell r="O35">
-            <v>5.4</v>
+            <v>6</v>
           </cell>
           <cell r="P35">
             <v>170.5</v>
@@ -2623,22 +2623,22 @@
             <v>0</v>
           </cell>
           <cell r="J36">
-            <v>15.3</v>
+            <v>20.399999999999999</v>
           </cell>
           <cell r="K36">
-            <v>9.3000000000000007</v>
+            <v>14.3</v>
           </cell>
           <cell r="L36">
-            <v>26.6</v>
+            <v>31.9</v>
           </cell>
           <cell r="M36">
-            <v>7.9</v>
+            <v>10.6</v>
           </cell>
           <cell r="N36">
-            <v>5</v>
+            <v>7.7</v>
           </cell>
           <cell r="O36">
-            <v>13.1</v>
+            <v>15.7</v>
           </cell>
           <cell r="P36">
             <v>27.1</v>
@@ -2685,22 +2685,22 @@
             <v>0</v>
           </cell>
           <cell r="J37">
-            <v>20.8</v>
+            <v>24.7</v>
           </cell>
           <cell r="K37">
-            <v>12.6</v>
+            <v>15.9</v>
           </cell>
           <cell r="L37">
-            <v>37.200000000000003</v>
+            <v>41.5</v>
           </cell>
           <cell r="M37">
-            <v>4.0999999999999996</v>
+            <v>4.9000000000000004</v>
           </cell>
           <cell r="N37">
-            <v>2.9</v>
+            <v>3.6</v>
           </cell>
           <cell r="O37">
-            <v>6.5</v>
+            <v>7.2</v>
           </cell>
           <cell r="P37">
             <v>63.8</v>
@@ -2747,22 +2747,22 @@
             <v>0</v>
           </cell>
           <cell r="J38">
-            <v>23</v>
+            <v>25.3</v>
           </cell>
           <cell r="K38">
-            <v>16</v>
+            <v>17.8</v>
           </cell>
           <cell r="L38">
-            <v>34.6</v>
+            <v>37.1</v>
           </cell>
           <cell r="M38">
-            <v>3.1</v>
+            <v>3.4</v>
           </cell>
           <cell r="N38">
-            <v>2.5</v>
+            <v>2.8</v>
           </cell>
           <cell r="O38">
-            <v>4.0999999999999996</v>
+            <v>4.4000000000000004</v>
           </cell>
           <cell r="P38">
             <v>63.9</v>
@@ -2809,22 +2809,22 @@
             <v>0</v>
           </cell>
           <cell r="J39">
-            <v>3.3</v>
+            <v>3.5</v>
           </cell>
           <cell r="K39">
-            <v>2</v>
+            <v>2.2000000000000002</v>
           </cell>
           <cell r="L39">
-            <v>5.3</v>
+            <v>5.6</v>
           </cell>
           <cell r="M39">
-            <v>1.4</v>
+            <v>1.5</v>
           </cell>
           <cell r="N39">
-            <v>1</v>
+            <v>1.1000000000000001</v>
           </cell>
           <cell r="O39">
-            <v>1.8</v>
+            <v>1.9</v>
           </cell>
           <cell r="P39">
             <v>15.5</v>
@@ -2871,22 +2871,22 @@
             <v>0</v>
           </cell>
           <cell r="J40">
-            <v>5.4</v>
+            <v>5.8</v>
           </cell>
           <cell r="K40">
-            <v>3.4</v>
+            <v>3.7</v>
           </cell>
           <cell r="L40">
-            <v>8.8000000000000007</v>
+            <v>9.1999999999999993</v>
           </cell>
           <cell r="M40">
-            <v>1.3</v>
+            <v>1.4</v>
           </cell>
           <cell r="N40">
-            <v>1</v>
+            <v>1.1000000000000001</v>
           </cell>
           <cell r="O40">
-            <v>1.8</v>
+            <v>1.9</v>
           </cell>
           <cell r="P40">
             <v>19.399999999999999</v>
@@ -2933,22 +2933,22 @@
             <v>0</v>
           </cell>
           <cell r="J41">
-            <v>3.7</v>
+            <v>4.2</v>
           </cell>
           <cell r="K41">
-            <v>2.1</v>
+            <v>2.5</v>
           </cell>
           <cell r="L41">
-            <v>6.4</v>
+            <v>7</v>
           </cell>
           <cell r="M41">
-            <v>2.2000000000000002</v>
+            <v>2.5</v>
           </cell>
           <cell r="N41">
-            <v>1.5</v>
+            <v>1.7</v>
           </cell>
           <cell r="O41">
-            <v>3.2</v>
+            <v>3.5</v>
           </cell>
           <cell r="P41">
             <v>18.3</v>
@@ -2995,22 +2995,22 @@
             <v>0</v>
           </cell>
           <cell r="J42">
-            <v>11.4</v>
+            <v>14.7</v>
           </cell>
           <cell r="K42">
-            <v>7.2</v>
+            <v>10</v>
           </cell>
           <cell r="L42">
-            <v>19.7</v>
+            <v>23.5</v>
           </cell>
           <cell r="M42">
-            <v>6.3</v>
+            <v>8.1</v>
           </cell>
           <cell r="N42">
-            <v>4.4000000000000004</v>
+            <v>6.1</v>
           </cell>
           <cell r="O42">
-            <v>9.8000000000000007</v>
+            <v>11.7</v>
           </cell>
           <cell r="P42">
             <v>23.1</v>
@@ -3057,22 +3057,22 @@
             <v>0</v>
           </cell>
           <cell r="J43">
-            <v>8.9</v>
+            <v>13.6</v>
           </cell>
           <cell r="K43">
-            <v>5.8</v>
+            <v>10.3</v>
           </cell>
           <cell r="L43">
-            <v>15</v>
+            <v>19.7</v>
           </cell>
           <cell r="M43">
-            <v>5.0999999999999996</v>
+            <v>7.8</v>
           </cell>
           <cell r="N43">
-            <v>3.6</v>
+            <v>6.4</v>
           </cell>
           <cell r="O43">
-            <v>7.9</v>
+            <v>10.4</v>
           </cell>
           <cell r="P43">
             <v>27.5</v>
@@ -3119,22 +3119,22 @@
             <v>0</v>
           </cell>
           <cell r="J44">
-            <v>17.399999999999999</v>
+            <v>18.7</v>
           </cell>
           <cell r="K44">
-            <v>12.5</v>
+            <v>13.6</v>
           </cell>
           <cell r="L44">
-            <v>25.4</v>
+            <v>26.7</v>
           </cell>
           <cell r="M44">
-            <v>4.0999999999999996</v>
+            <v>4.4000000000000004</v>
           </cell>
           <cell r="N44">
-            <v>3.3</v>
+            <v>3.6</v>
           </cell>
           <cell r="O44">
-            <v>5.2</v>
+            <v>5.5</v>
           </cell>
           <cell r="P44">
             <v>45.4</v>
@@ -3181,22 +3181,22 @@
             <v>0</v>
           </cell>
           <cell r="J45">
-            <v>15.2</v>
+            <v>16.7</v>
           </cell>
           <cell r="K45">
-            <v>8.6999999999999993</v>
+            <v>9.9</v>
           </cell>
           <cell r="L45">
-            <v>27.9</v>
+            <v>29.4</v>
           </cell>
           <cell r="M45">
-            <v>4.9000000000000004</v>
+            <v>5.4</v>
           </cell>
           <cell r="N45">
-            <v>3.2</v>
+            <v>3.6</v>
           </cell>
           <cell r="O45">
-            <v>7.9</v>
+            <v>8.3000000000000007</v>
           </cell>
           <cell r="P45">
             <v>36</v>
@@ -3242,22 +3242,22 @@
             <v>1.85</v>
           </cell>
           <cell r="E4">
-            <v>3.41</v>
+            <v>3.64</v>
           </cell>
           <cell r="F4">
-            <v>1.8</v>
+            <v>2.25</v>
           </cell>
           <cell r="G4">
-            <v>5.92</v>
+            <v>5.73</v>
           </cell>
           <cell r="H4">
-            <v>4.6399999999999997</v>
+            <v>4.74</v>
           </cell>
           <cell r="I4">
-            <v>2.82</v>
+            <v>3.14</v>
           </cell>
           <cell r="J4">
-            <v>7.21</v>
+            <v>6.9</v>
           </cell>
         </row>
         <row r="5">
@@ -3271,22 +3271,22 @@
             <v>5.55</v>
           </cell>
           <cell r="E5">
-            <v>10.24</v>
+            <v>10.93</v>
           </cell>
           <cell r="F5">
-            <v>5.4</v>
+            <v>6.76</v>
           </cell>
           <cell r="G5">
-            <v>17.75</v>
+            <v>17.2</v>
           </cell>
           <cell r="H5">
-            <v>13.92</v>
+            <v>14.22</v>
           </cell>
           <cell r="I5">
-            <v>8.4700000000000006</v>
+            <v>9.42</v>
           </cell>
           <cell r="J5">
-            <v>21.62</v>
+            <v>20.71</v>
           </cell>
         </row>
       </sheetData>
@@ -3314,22 +3314,22 @@
             <v>0.16</v>
           </cell>
           <cell r="E4">
-            <v>0.3</v>
+            <v>0.32</v>
           </cell>
           <cell r="F4">
-            <v>0.16</v>
+            <v>0.2</v>
           </cell>
           <cell r="G4">
-            <v>0.52</v>
+            <v>0.51</v>
           </cell>
           <cell r="H4">
-            <v>0.41</v>
+            <v>0.42</v>
           </cell>
           <cell r="I4">
-            <v>0.25</v>
+            <v>0.28000000000000003</v>
           </cell>
           <cell r="J4">
-            <v>0.64</v>
+            <v>0.61</v>
           </cell>
         </row>
         <row r="5">
@@ -3343,22 +3343,22 @@
             <v>0.82</v>
           </cell>
           <cell r="E5">
-            <v>1.5</v>
+            <v>1.61</v>
           </cell>
           <cell r="F5">
-            <v>0.79</v>
+            <v>0.99</v>
           </cell>
           <cell r="G5">
-            <v>2.61</v>
+            <v>2.5299999999999998</v>
           </cell>
           <cell r="H5">
-            <v>2.04</v>
+            <v>2.09</v>
           </cell>
           <cell r="I5">
-            <v>1.24</v>
+            <v>1.38</v>
           </cell>
           <cell r="J5">
-            <v>3.18</v>
+            <v>3.04</v>
           </cell>
         </row>
       </sheetData>
@@ -3632,8 +3632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:L4"/>
+    <sheetView topLeftCell="H77" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75:X89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3650,76 +3650,76 @@
     <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="B3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="12" t="str">
+      <c r="B4" s="24" t="str">
         <f>E1</f>
         <v>DALYs</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="12" t="str">
+      <c r="J4" s="24" t="str">
         <f>B4</f>
         <v>DALYs</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="12" t="str">
+      <c r="R4" s="24" t="str">
         <f>J4</f>
         <v>DALYs</v>
       </c>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -3813,52 +3813,52 @@
       </c>
       <c r="J6" s="5" cm="1">
         <f t="array" ref="J6">INDEX([1]table1!J:J,MATCH(1,($A$1=[1]table1!$B:$B)*($A6=[1]table1!$C:$C),0))</f>
-        <v>300.7</v>
+        <v>321.2</v>
       </c>
       <c r="K6" s="5" cm="1">
         <f t="array" ref="K6">INDEX([1]table1!K:K,MATCH(1,($A$1=[1]table1!$B:$B)*($A6=[1]table1!$C:$C),0))</f>
-        <v>158.6</v>
+        <v>198.6</v>
       </c>
       <c r="L6" s="5" cm="1">
         <f t="array" ref="L6">INDEX([1]table1!L:L,MATCH(1,($A$1=[1]table1!$B:$B)*($A6=[1]table1!$C:$C),0))</f>
-        <v>521.29999999999995</v>
+        <v>505.2</v>
       </c>
       <c r="N6" s="5" cm="1">
         <f t="array" ref="N6">INDEX([1]table1!M:M,MATCH(1,($A$1=[1]table1!$B:$B)*($A6=[1]table1!$C:$C),0))</f>
-        <v>11.8</v>
+        <v>12.7</v>
       </c>
       <c r="O6" s="5" cm="1">
         <f t="array" ref="O6">INDEX([1]table1!N:N,MATCH(1,($A$1=[1]table1!$B:$B)*($A6=[1]table1!$C:$C),0))</f>
-        <v>6.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="P6" s="5" cm="1">
         <f t="array" ref="P6">INDEX([1]table1!O:O,MATCH(1,($A$1=[1]table1!$B:$B)*($A6=[1]table1!$C:$C),0))</f>
-        <v>18.600000000000001</v>
+        <v>18</v>
       </c>
       <c r="R6" s="5" cm="1">
         <f t="array" ref="R6">INDEX([1]table1!P:P,MATCH(1,($A$1=[1]table1!$B:$B)*($A6=[1]table1!$C:$C),0))</f>
-        <v>408.8</v>
+        <v>417.7</v>
       </c>
       <c r="S6" s="5" cm="1">
         <f t="array" ref="S6">INDEX([1]table1!Q:Q,MATCH(1,($A$1=[1]table1!$B:$B)*($A6=[1]table1!$C:$C),0))</f>
-        <v>248.9</v>
+        <v>276.7</v>
       </c>
       <c r="T6" s="5" cm="1">
         <f t="array" ref="T6">INDEX([1]table1!R:R,MATCH(1,($A$1=[1]table1!$B:$B)*($A6=[1]table1!$C:$C),0))</f>
-        <v>635.20000000000005</v>
+        <v>608.4</v>
       </c>
       <c r="U6" s="5"/>
       <c r="V6" s="5" cm="1">
         <f t="array" ref="V6">INDEX([1]table1!S:S,MATCH(1,($A$1=[1]table1!$B:$B)*($A6=[1]table1!$C:$C),0))</f>
-        <v>16.100000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="W6" s="5" cm="1">
         <f t="array" ref="W6">INDEX([1]table1!T:T,MATCH(1,($A$1=[1]table1!$B:$B)*($A6=[1]table1!$C:$C),0))</f>
-        <v>10.9</v>
+        <v>12.1</v>
       </c>
       <c r="X6" s="5" cm="1">
         <f t="array" ref="X6">INDEX([1]table1!U:U,MATCH(1,($A$1=[1]table1!$B:$B)*($A6=[1]table1!$C:$C),0))</f>
-        <v>22.6</v>
+        <v>21.6</v>
       </c>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
@@ -3946,52 +3946,52 @@
       </c>
       <c r="J9" s="5" cm="1">
         <f t="array" ref="J9">INDEX([1]table1!J:J,MATCH(1,($A$1=[1]table1!$B:$B)*($A9=[1]table1!$C:$C),0))</f>
-        <v>66.099999999999994</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="K9" s="5" cm="1">
         <f t="array" ref="K9">INDEX([1]table1!K:K,MATCH(1,($A$1=[1]table1!$B:$B)*($A9=[1]table1!$C:$C),0))</f>
-        <v>32.9</v>
+        <v>46.2</v>
       </c>
       <c r="L9" s="5" cm="1">
         <f t="array" ref="L9">INDEX([1]table1!L:L,MATCH(1,($A$1=[1]table1!$B:$B)*($A9=[1]table1!$C:$C),0))</f>
-        <v>119.3</v>
+        <v>117.9</v>
       </c>
       <c r="N9" s="5" cm="1">
         <f t="array" ref="N9">INDEX([1]table1!M:M,MATCH(1,($A$1=[1]table1!$B:$B)*($A9=[1]table1!$C:$C),0))</f>
-        <v>18</v>
+        <v>20.3</v>
       </c>
       <c r="O9" s="5" cm="1">
         <f t="array" ref="O9">INDEX([1]table1!N:N,MATCH(1,($A$1=[1]table1!$B:$B)*($A9=[1]table1!$C:$C),0))</f>
-        <v>10.3</v>
+        <v>14.4</v>
       </c>
       <c r="P9" s="5" cm="1">
         <f t="array" ref="P9">INDEX([1]table1!O:O,MATCH(1,($A$1=[1]table1!$B:$B)*($A9=[1]table1!$C:$C),0))</f>
-        <v>28.4</v>
+        <v>28.1</v>
       </c>
       <c r="R9" s="5" cm="1">
         <f t="array" ref="R9">INDEX([1]table1!P:P,MATCH(1,($A$1=[1]table1!$B:$B)*($A9=[1]table1!$C:$C),0))</f>
-        <v>77.900000000000006</v>
+        <v>81</v>
       </c>
       <c r="S9" s="5" cm="1">
         <f t="array" ref="S9">INDEX([1]table1!Q:Q,MATCH(1,($A$1=[1]table1!$B:$B)*($A9=[1]table1!$C:$C),0))</f>
-        <v>44.7</v>
+        <v>52.8</v>
       </c>
       <c r="T9" s="5" cm="1">
         <f t="array" ref="T9">INDEX([1]table1!R:R,MATCH(1,($A$1=[1]table1!$B:$B)*($A9=[1]table1!$C:$C),0))</f>
-        <v>126.8</v>
+        <v>120.3</v>
       </c>
       <c r="U9" s="5"/>
       <c r="V9" s="5" cm="1">
         <f t="array" ref="V9">INDEX([1]table1!S:S,MATCH(1,($A$1=[1]table1!$B:$B)*($A9=[1]table1!$C:$C),0))</f>
-        <v>21.2</v>
+        <v>22.1</v>
       </c>
       <c r="W9" s="5" cm="1">
         <f t="array" ref="W9">INDEX([1]table1!T:T,MATCH(1,($A$1=[1]table1!$B:$B)*($A9=[1]table1!$C:$C),0))</f>
-        <v>13.9</v>
+        <v>16.5</v>
       </c>
       <c r="X9" s="5" cm="1">
         <f t="array" ref="X9">INDEX([1]table1!U:U,MATCH(1,($A$1=[1]table1!$B:$B)*($A9=[1]table1!$C:$C),0))</f>
-        <v>30.2</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -4024,52 +4024,52 @@
       </c>
       <c r="J10" s="5" cm="1">
         <f t="array" ref="J10">INDEX([1]table1!J:J,MATCH(1,($A$1=[1]table1!$B:$B)*($A10=[1]table1!$C:$C),0))</f>
-        <v>110</v>
+        <v>117.5</v>
       </c>
       <c r="K10" s="5" cm="1">
         <f t="array" ref="K10">INDEX([1]table1!K:K,MATCH(1,($A$1=[1]table1!$B:$B)*($A10=[1]table1!$C:$C),0))</f>
-        <v>54.6</v>
+        <v>69.5</v>
       </c>
       <c r="L10" s="5" cm="1">
         <f t="array" ref="L10">INDEX([1]table1!L:L,MATCH(1,($A$1=[1]table1!$B:$B)*($A10=[1]table1!$C:$C),0))</f>
-        <v>198.2</v>
+        <v>191.6</v>
       </c>
       <c r="N10" s="5" cm="1">
         <f t="array" ref="N10">INDEX([1]table1!M:M,MATCH(1,($A$1=[1]table1!$B:$B)*($A10=[1]table1!$C:$C),0))</f>
-        <v>13.4</v>
+        <v>14.3</v>
       </c>
       <c r="O10" s="5" cm="1">
         <f t="array" ref="O10">INDEX([1]table1!N:N,MATCH(1,($A$1=[1]table1!$B:$B)*($A10=[1]table1!$C:$C),0))</f>
-        <v>7.6</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="P10" s="5" cm="1">
         <f t="array" ref="P10">INDEX([1]table1!O:O,MATCH(1,($A$1=[1]table1!$B:$B)*($A10=[1]table1!$C:$C),0))</f>
-        <v>21.2</v>
+        <v>20.5</v>
       </c>
       <c r="R10" s="5" cm="1">
         <f t="array" ref="R10">INDEX([1]table1!P:P,MATCH(1,($A$1=[1]table1!$B:$B)*($A10=[1]table1!$C:$C),0))</f>
-        <v>152.9</v>
+        <v>156.6</v>
       </c>
       <c r="S10" s="5" cm="1">
         <f t="array" ref="S10">INDEX([1]table1!Q:Q,MATCH(1,($A$1=[1]table1!$B:$B)*($A10=[1]table1!$C:$C),0))</f>
-        <v>88.3</v>
+        <v>99.3</v>
       </c>
       <c r="T10" s="5" cm="1">
         <f t="array" ref="T10">INDEX([1]table1!R:R,MATCH(1,($A$1=[1]table1!$B:$B)*($A10=[1]table1!$C:$C),0))</f>
-        <v>246.4</v>
+        <v>236.2</v>
       </c>
       <c r="U10" s="5"/>
       <c r="V10" s="5" cm="1">
         <f t="array" ref="V10">INDEX([1]table1!S:S,MATCH(1,($A$1=[1]table1!$B:$B)*($A10=[1]table1!$C:$C),0))</f>
-        <v>18.7</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="W10" s="5" cm="1">
         <f t="array" ref="W10">INDEX([1]table1!T:T,MATCH(1,($A$1=[1]table1!$B:$B)*($A10=[1]table1!$C:$C),0))</f>
-        <v>12.4</v>
+        <v>13.9</v>
       </c>
       <c r="X10" s="5" cm="1">
         <f t="array" ref="X10">INDEX([1]table1!U:U,MATCH(1,($A$1=[1]table1!$B:$B)*($A10=[1]table1!$C:$C),0))</f>
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -4102,52 +4102,52 @@
       </c>
       <c r="J11" s="5" cm="1">
         <f t="array" ref="J11">INDEX([1]table1!J:J,MATCH(1,($A$1=[1]table1!$B:$B)*($A11=[1]table1!$C:$C),0))</f>
-        <v>105.1</v>
+        <v>108.8</v>
       </c>
       <c r="K11" s="5" cm="1">
         <f t="array" ref="K11">INDEX([1]table1!K:K,MATCH(1,($A$1=[1]table1!$B:$B)*($A11=[1]table1!$C:$C),0))</f>
-        <v>55.3</v>
+        <v>65</v>
       </c>
       <c r="L11" s="5" cm="1">
         <f t="array" ref="L11">INDEX([1]table1!L:L,MATCH(1,($A$1=[1]table1!$B:$B)*($A11=[1]table1!$C:$C),0))</f>
-        <v>180.8</v>
+        <v>174.1</v>
       </c>
       <c r="N11" s="5" cm="1">
         <f t="array" ref="N11">INDEX([1]table1!M:M,MATCH(1,($A$1=[1]table1!$B:$B)*($A11=[1]table1!$C:$C),0))</f>
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="O11" s="5" cm="1">
         <f t="array" ref="O11">INDEX([1]table1!N:N,MATCH(1,($A$1=[1]table1!$B:$B)*($A11=[1]table1!$C:$C),0))</f>
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="P11" s="5" cm="1">
         <f t="array" ref="P11">INDEX([1]table1!O:O,MATCH(1,($A$1=[1]table1!$B:$B)*($A11=[1]table1!$C:$C),0))</f>
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="R11" s="5" cm="1">
         <f t="array" ref="R11">INDEX([1]table1!P:P,MATCH(1,($A$1=[1]table1!$B:$B)*($A11=[1]table1!$C:$C),0))</f>
-        <v>145.9</v>
+        <v>147.4</v>
       </c>
       <c r="S11" s="5" cm="1">
         <f t="array" ref="S11">INDEX([1]table1!Q:Q,MATCH(1,($A$1=[1]table1!$B:$B)*($A11=[1]table1!$C:$C),0))</f>
-        <v>82.9</v>
+        <v>90.2</v>
       </c>
       <c r="T11" s="5" cm="1">
         <f t="array" ref="T11">INDEX([1]table1!R:R,MATCH(1,($A$1=[1]table1!$B:$B)*($A11=[1]table1!$C:$C),0))</f>
-        <v>234.6</v>
+        <v>225.7</v>
       </c>
       <c r="U11" s="5"/>
       <c r="V11" s="5" cm="1">
         <f t="array" ref="V11">INDEX([1]table1!S:S,MATCH(1,($A$1=[1]table1!$B:$B)*($A11=[1]table1!$C:$C),0))</f>
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="W11" s="5" cm="1">
         <f t="array" ref="W11">INDEX([1]table1!T:T,MATCH(1,($A$1=[1]table1!$B:$B)*($A11=[1]table1!$C:$C),0))</f>
-        <v>9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="X11" s="5" cm="1">
         <f t="array" ref="X11">INDEX([1]table1!U:U,MATCH(1,($A$1=[1]table1!$B:$B)*($A11=[1]table1!$C:$C),0))</f>
-        <v>19.600000000000001</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
@@ -4180,23 +4180,23 @@
       </c>
       <c r="J12" s="5" cm="1">
         <f t="array" ref="J12">INDEX([1]table1!J:J,MATCH(1,($A$1=[1]table1!$B:$B)*($A12=[1]table1!$C:$C),0))</f>
-        <v>19.399999999999999</v>
+        <v>20.3</v>
       </c>
       <c r="K12" s="5" cm="1">
         <f t="array" ref="K12">INDEX([1]table1!K:K,MATCH(1,($A$1=[1]table1!$B:$B)*($A12=[1]table1!$C:$C),0))</f>
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="L12" s="5" cm="1">
         <f t="array" ref="L12">INDEX([1]table1!L:L,MATCH(1,($A$1=[1]table1!$B:$B)*($A12=[1]table1!$C:$C),0))</f>
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
       <c r="N12" s="5" cm="1">
         <f t="array" ref="N12">INDEX([1]table1!M:M,MATCH(1,($A$1=[1]table1!$B:$B)*($A12=[1]table1!$C:$C),0))</f>
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="O12" s="5" cm="1">
         <f t="array" ref="O12">INDEX([1]table1!N:N,MATCH(1,($A$1=[1]table1!$B:$B)*($A12=[1]table1!$C:$C),0))</f>
-        <v>4.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="P12" s="5" cm="1">
         <f t="array" ref="P12">INDEX([1]table1!O:O,MATCH(1,($A$1=[1]table1!$B:$B)*($A12=[1]table1!$C:$C),0))</f>
@@ -4204,28 +4204,28 @@
       </c>
       <c r="R12" s="5" cm="1">
         <f t="array" ref="R12">INDEX([1]table1!P:P,MATCH(1,($A$1=[1]table1!$B:$B)*($A12=[1]table1!$C:$C),0))</f>
-        <v>31.7</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="S12" s="5" cm="1">
         <f t="array" ref="S12">INDEX([1]table1!Q:Q,MATCH(1,($A$1=[1]table1!$B:$B)*($A12=[1]table1!$C:$C),0))</f>
-        <v>18.600000000000001</v>
+        <v>19.8</v>
       </c>
       <c r="T12" s="5" cm="1">
         <f t="array" ref="T12">INDEX([1]table1!R:R,MATCH(1,($A$1=[1]table1!$B:$B)*($A12=[1]table1!$C:$C),0))</f>
-        <v>50.5</v>
+        <v>49.9</v>
       </c>
       <c r="U12" s="5"/>
       <c r="V12" s="5" cm="1">
         <f t="array" ref="V12">INDEX([1]table1!S:S,MATCH(1,($A$1=[1]table1!$B:$B)*($A12=[1]table1!$C:$C),0))</f>
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="W12" s="5" cm="1">
         <f t="array" ref="W12">INDEX([1]table1!T:T,MATCH(1,($A$1=[1]table1!$B:$B)*($A12=[1]table1!$C:$C),0))</f>
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="X12" s="5" cm="1">
         <f t="array" ref="X12">INDEX([1]table1!U:U,MATCH(1,($A$1=[1]table1!$B:$B)*($A12=[1]table1!$C:$C),0))</f>
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4310,52 +4310,52 @@
       </c>
       <c r="J15" s="5" cm="1">
         <f t="array" ref="J15">INDEX([1]table1!J:J,MATCH(1,($A$1=[1]table1!$B:$B)*($A15=[1]table1!$C:$C),0))</f>
-        <v>31.4</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="K15" s="5" cm="1">
         <f t="array" ref="K15">INDEX([1]table1!K:K,MATCH(1,($A$1=[1]table1!$B:$B)*($A15=[1]table1!$C:$C),0))</f>
-        <v>16.7</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="L15" s="5" cm="1">
         <f t="array" ref="L15">INDEX([1]table1!L:L,MATCH(1,($A$1=[1]table1!$B:$B)*($A15=[1]table1!$C:$C),0))</f>
-        <v>53.6</v>
+        <v>52.9</v>
       </c>
       <c r="N15" s="5" cm="1">
         <f t="array" ref="N15">INDEX([1]table1!M:M,MATCH(1,($A$1=[1]table1!$B:$B)*($A15=[1]table1!$C:$C),0))</f>
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O15" s="5" cm="1">
         <f t="array" ref="O15">INDEX([1]table1!N:N,MATCH(1,($A$1=[1]table1!$B:$B)*($A15=[1]table1!$C:$C),0))</f>
-        <v>3.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P15" s="5" cm="1">
         <f t="array" ref="P15">INDEX([1]table1!O:O,MATCH(1,($A$1=[1]table1!$B:$B)*($A15=[1]table1!$C:$C),0))</f>
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="R15" s="5" cm="1">
         <f t="array" ref="R15">INDEX([1]table1!P:P,MATCH(1,($A$1=[1]table1!$B:$B)*($A15=[1]table1!$C:$C),0))</f>
-        <v>45.3</v>
+        <v>46.4</v>
       </c>
       <c r="S15" s="5" cm="1">
         <f t="array" ref="S15">INDEX([1]table1!Q:Q,MATCH(1,($A$1=[1]table1!$B:$B)*($A15=[1]table1!$C:$C),0))</f>
-        <v>25.9</v>
+        <v>28</v>
       </c>
       <c r="T15" s="5" cm="1">
         <f t="array" ref="T15">INDEX([1]table1!R:R,MATCH(1,($A$1=[1]table1!$B:$B)*($A15=[1]table1!$C:$C),0))</f>
-        <v>73.5</v>
+        <v>72.5</v>
       </c>
       <c r="U15" s="5"/>
       <c r="V15" s="5" cm="1">
         <f t="array" ref="V15">INDEX([1]table1!S:S,MATCH(1,($A$1=[1]table1!$B:$B)*($A15=[1]table1!$C:$C),0))</f>
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="W15" s="5" cm="1">
         <f t="array" ref="W15">INDEX([1]table1!T:T,MATCH(1,($A$1=[1]table1!$B:$B)*($A15=[1]table1!$C:$C),0))</f>
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="X15" s="5" cm="1">
         <f t="array" ref="X15">INDEX([1]table1!U:U,MATCH(1,($A$1=[1]table1!$B:$B)*($A15=[1]table1!$C:$C),0))</f>
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
@@ -4388,52 +4388,52 @@
       </c>
       <c r="J16" s="5" cm="1">
         <f t="array" ref="J16">INDEX([1]table1!J:J,MATCH(1,($A$1=[1]table1!$B:$B)*($A16=[1]table1!$C:$C),0))</f>
-        <v>25.8</v>
+        <v>26.9</v>
       </c>
       <c r="K16" s="5" cm="1">
         <f t="array" ref="K16">INDEX([1]table1!K:K,MATCH(1,($A$1=[1]table1!$B:$B)*($A16=[1]table1!$C:$C),0))</f>
-        <v>13.2</v>
+        <v>15.5</v>
       </c>
       <c r="L16" s="5" cm="1">
         <f t="array" ref="L16">INDEX([1]table1!L:L,MATCH(1,($A$1=[1]table1!$B:$B)*($A16=[1]table1!$C:$C),0))</f>
-        <v>45</v>
+        <v>43.9</v>
       </c>
       <c r="N16" s="5" cm="1">
         <f t="array" ref="N16">INDEX([1]table1!M:M,MATCH(1,($A$1=[1]table1!$B:$B)*($A16=[1]table1!$C:$C),0))</f>
-        <v>10.7</v>
+        <v>11.1</v>
       </c>
       <c r="O16" s="5" cm="1">
         <f t="array" ref="O16">INDEX([1]table1!N:N,MATCH(1,($A$1=[1]table1!$B:$B)*($A16=[1]table1!$C:$C),0))</f>
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="P16" s="5" cm="1">
         <f t="array" ref="P16">INDEX([1]table1!O:O,MATCH(1,($A$1=[1]table1!$B:$B)*($A16=[1]table1!$C:$C),0))</f>
-        <v>16.100000000000001</v>
+        <v>15.7</v>
       </c>
       <c r="R16" s="5" cm="1">
         <f t="array" ref="R16">INDEX([1]table1!P:P,MATCH(1,($A$1=[1]table1!$B:$B)*($A16=[1]table1!$C:$C),0))</f>
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="S16" s="5" cm="1">
         <f t="array" ref="S16">INDEX([1]table1!Q:Q,MATCH(1,($A$1=[1]table1!$B:$B)*($A16=[1]table1!$C:$C),0))</f>
-        <v>23.8</v>
+        <v>25.6</v>
       </c>
       <c r="T16" s="5" cm="1">
         <f t="array" ref="T16">INDEX([1]table1!R:R,MATCH(1,($A$1=[1]table1!$B:$B)*($A16=[1]table1!$C:$C),0))</f>
-        <v>64.400000000000006</v>
+        <v>62.8</v>
       </c>
       <c r="U16" s="5"/>
       <c r="V16" s="5" cm="1">
         <f t="array" ref="V16">INDEX([1]table1!S:S,MATCH(1,($A$1=[1]table1!$B:$B)*($A16=[1]table1!$C:$C),0))</f>
-        <v>16.7</v>
+        <v>17</v>
       </c>
       <c r="W16" s="5" cm="1">
         <f t="array" ref="W16">INDEX([1]table1!T:T,MATCH(1,($A$1=[1]table1!$B:$B)*($A16=[1]table1!$C:$C),0))</f>
-        <v>11.4</v>
+        <v>12.2</v>
       </c>
       <c r="X16" s="5" cm="1">
         <f t="array" ref="X16">INDEX([1]table1!U:U,MATCH(1,($A$1=[1]table1!$B:$B)*($A16=[1]table1!$C:$C),0))</f>
-        <v>23.1</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -4466,11 +4466,11 @@
       </c>
       <c r="J17" s="5" cm="1">
         <f t="array" ref="J17">INDEX([1]table1!J:J,MATCH(1,($A$1=[1]table1!$B:$B)*($A17=[1]table1!$C:$C),0))</f>
-        <v>46.5</v>
+        <v>51.8</v>
       </c>
       <c r="K17" s="5" cm="1">
         <f t="array" ref="K17">INDEX([1]table1!K:K,MATCH(1,($A$1=[1]table1!$B:$B)*($A17=[1]table1!$C:$C),0))</f>
-        <v>24.1</v>
+        <v>31.9</v>
       </c>
       <c r="L17" s="5" cm="1">
         <f t="array" ref="L17">INDEX([1]table1!L:L,MATCH(1,($A$1=[1]table1!$B:$B)*($A17=[1]table1!$C:$C),0))</f>
@@ -4478,11 +4478,11 @@
       </c>
       <c r="N17" s="5" cm="1">
         <f t="array" ref="N17">INDEX([1]table1!M:M,MATCH(1,($A$1=[1]table1!$B:$B)*($A17=[1]table1!$C:$C),0))</f>
-        <v>15.4</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="O17" s="5" cm="1">
         <f t="array" ref="O17">INDEX([1]table1!N:N,MATCH(1,($A$1=[1]table1!$B:$B)*($A17=[1]table1!$C:$C),0))</f>
-        <v>9.1</v>
+        <v>12.1</v>
       </c>
       <c r="P17" s="5" cm="1">
         <f t="array" ref="P17">INDEX([1]table1!O:O,MATCH(1,($A$1=[1]table1!$B:$B)*($A17=[1]table1!$C:$C),0))</f>
@@ -4490,28 +4490,28 @@
       </c>
       <c r="R17" s="5" cm="1">
         <f t="array" ref="R17">INDEX([1]table1!P:P,MATCH(1,($A$1=[1]table1!$B:$B)*($A17=[1]table1!$C:$C),0))</f>
-        <v>58.3</v>
+        <v>60.2</v>
       </c>
       <c r="S17" s="5" cm="1">
         <f t="array" ref="S17">INDEX([1]table1!Q:Q,MATCH(1,($A$1=[1]table1!$B:$B)*($A17=[1]table1!$C:$C),0))</f>
-        <v>34.1</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="T17" s="5" cm="1">
         <f t="array" ref="T17">INDEX([1]table1!R:R,MATCH(1,($A$1=[1]table1!$B:$B)*($A17=[1]table1!$C:$C),0))</f>
-        <v>93.7</v>
+        <v>90.3</v>
       </c>
       <c r="U17" s="5"/>
       <c r="V17" s="5" cm="1">
         <f t="array" ref="V17">INDEX([1]table1!S:S,MATCH(1,($A$1=[1]table1!$B:$B)*($A17=[1]table1!$C:$C),0))</f>
-        <v>19.2</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="W17" s="5" cm="1">
         <f t="array" ref="W17">INDEX([1]table1!T:T,MATCH(1,($A$1=[1]table1!$B:$B)*($A17=[1]table1!$C:$C),0))</f>
-        <v>12.9</v>
+        <v>14.6</v>
       </c>
       <c r="X17" s="5" cm="1">
         <f t="array" ref="X17">INDEX([1]table1!U:U,MATCH(1,($A$1=[1]table1!$B:$B)*($A17=[1]table1!$C:$C),0))</f>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -4544,52 +4544,52 @@
       </c>
       <c r="J18" s="5" cm="1">
         <f t="array" ref="J18">INDEX([1]table1!J:J,MATCH(1,($A$1=[1]table1!$B:$B)*($A18=[1]table1!$C:$C),0))</f>
-        <v>48.1</v>
+        <v>56.1</v>
       </c>
       <c r="K18" s="5" cm="1">
         <f t="array" ref="K18">INDEX([1]table1!K:K,MATCH(1,($A$1=[1]table1!$B:$B)*($A18=[1]table1!$C:$C),0))</f>
-        <v>24.1</v>
+        <v>35.4</v>
       </c>
       <c r="L18" s="5" cm="1">
         <f t="array" ref="L18">INDEX([1]table1!L:L,MATCH(1,($A$1=[1]table1!$B:$B)*($A18=[1]table1!$C:$C),0))</f>
-        <v>85.7</v>
+        <v>87.3</v>
       </c>
       <c r="N18" s="5" cm="1">
         <f t="array" ref="N18">INDEX([1]table1!M:M,MATCH(1,($A$1=[1]table1!$B:$B)*($A18=[1]table1!$C:$C),0))</f>
-        <v>15.8</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="O18" s="5" cm="1">
         <f t="array" ref="O18">INDEX([1]table1!N:N,MATCH(1,($A$1=[1]table1!$B:$B)*($A18=[1]table1!$C:$C),0))</f>
-        <v>9</v>
+        <v>13.3</v>
       </c>
       <c r="P18" s="5" cm="1">
         <f t="array" ref="P18">INDEX([1]table1!O:O,MATCH(1,($A$1=[1]table1!$B:$B)*($A18=[1]table1!$C:$C),0))</f>
-        <v>24.6</v>
+        <v>25.1</v>
       </c>
       <c r="R18" s="5" cm="1">
         <f t="array" ref="R18">INDEX([1]table1!P:P,MATCH(1,($A$1=[1]table1!$B:$B)*($A18=[1]table1!$C:$C),0))</f>
-        <v>66.599999999999994</v>
+        <v>70</v>
       </c>
       <c r="S18" s="5" cm="1">
         <f t="array" ref="S18">INDEX([1]table1!Q:Q,MATCH(1,($A$1=[1]table1!$B:$B)*($A18=[1]table1!$C:$C),0))</f>
-        <v>39.799999999999997</v>
+        <v>46.4</v>
       </c>
       <c r="T18" s="5" cm="1">
         <f t="array" ref="T18">INDEX([1]table1!R:R,MATCH(1,($A$1=[1]table1!$B:$B)*($A18=[1]table1!$C:$C),0))</f>
-        <v>105.4</v>
+        <v>102.6</v>
       </c>
       <c r="U18" s="5"/>
       <c r="V18" s="5" cm="1">
         <f t="array" ref="V18">INDEX([1]table1!S:S,MATCH(1,($A$1=[1]table1!$B:$B)*($A18=[1]table1!$C:$C),0))</f>
-        <v>21.8</v>
+        <v>23</v>
       </c>
       <c r="W18" s="5" cm="1">
         <f t="array" ref="W18">INDEX([1]table1!T:T,MATCH(1,($A$1=[1]table1!$B:$B)*($A18=[1]table1!$C:$C),0))</f>
-        <v>14.9</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="X18" s="5" cm="1">
         <f t="array" ref="X18">INDEX([1]table1!U:U,MATCH(1,($A$1=[1]table1!$B:$B)*($A18=[1]table1!$C:$C),0))</f>
-        <v>30.3</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -4622,39 +4622,39 @@
       </c>
       <c r="J19" s="5" cm="1">
         <f t="array" ref="J19">INDEX([1]table1!J:J,MATCH(1,($A$1=[1]table1!$B:$B)*($A19=[1]table1!$C:$C),0))</f>
-        <v>75.7</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="K19" s="5" cm="1">
         <f t="array" ref="K19">INDEX([1]table1!K:K,MATCH(1,($A$1=[1]table1!$B:$B)*($A19=[1]table1!$C:$C),0))</f>
-        <v>39.700000000000003</v>
+        <v>46.4</v>
       </c>
       <c r="L19" s="5" cm="1">
         <f t="array" ref="L19">INDEX([1]table1!L:L,MATCH(1,($A$1=[1]table1!$B:$B)*($A19=[1]table1!$C:$C),0))</f>
-        <v>130.5</v>
+        <v>123.5</v>
       </c>
       <c r="N19" s="5" cm="1">
         <f t="array" ref="N19">INDEX([1]table1!M:M,MATCH(1,($A$1=[1]table1!$B:$B)*($A19=[1]table1!$C:$C),0))</f>
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="O19" s="5" cm="1">
         <f t="array" ref="O19">INDEX([1]table1!N:N,MATCH(1,($A$1=[1]table1!$B:$B)*($A19=[1]table1!$C:$C),0))</f>
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="P19" s="5" cm="1">
         <f t="array" ref="P19">INDEX([1]table1!O:O,MATCH(1,($A$1=[1]table1!$B:$B)*($A19=[1]table1!$C:$C),0))</f>
-        <v>17.600000000000001</v>
+        <v>16.7</v>
       </c>
       <c r="R19" s="5" cm="1">
         <f t="array" ref="R19">INDEX([1]table1!P:P,MATCH(1,($A$1=[1]table1!$B:$B)*($A19=[1]table1!$C:$C),0))</f>
-        <v>103.7</v>
+        <v>104.1</v>
       </c>
       <c r="S19" s="5" cm="1">
         <f t="array" ref="S19">INDEX([1]table1!Q:Q,MATCH(1,($A$1=[1]table1!$B:$B)*($A19=[1]table1!$C:$C),0))</f>
-        <v>58.6</v>
+        <v>64</v>
       </c>
       <c r="T19" s="5" cm="1">
         <f t="array" ref="T19">INDEX([1]table1!R:R,MATCH(1,($A$1=[1]table1!$B:$B)*($A19=[1]table1!$C:$C),0))</f>
-        <v>166.7</v>
+        <v>158.5</v>
       </c>
       <c r="U19" s="5"/>
       <c r="V19" s="5" cm="1">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="W19" s="5" cm="1">
         <f t="array" ref="W19">INDEX([1]table1!T:T,MATCH(1,($A$1=[1]table1!$B:$B)*($A19=[1]table1!$C:$C),0))</f>
-        <v>10.199999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="X19" s="5" cm="1">
         <f t="array" ref="X19">INDEX([1]table1!U:U,MATCH(1,($A$1=[1]table1!$B:$B)*($A19=[1]table1!$C:$C),0))</f>
-        <v>22.5</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4702,54 +4702,54 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10" cm="1">
         <f t="array" ref="J20">INDEX([1]table1!J:J,MATCH(1,($A$1=[1]table1!$B:$B)*($A20=[1]table1!$C:$C),0))</f>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K20" s="10" cm="1">
         <f t="array" ref="K20">INDEX([1]table1!K:K,MATCH(1,($A$1=[1]table1!$B:$B)*($A20=[1]table1!$C:$C),0))</f>
-        <v>34.9</v>
+        <v>43.6</v>
       </c>
       <c r="L20" s="10" cm="1">
         <f t="array" ref="L20">INDEX([1]table1!L:L,MATCH(1,($A$1=[1]table1!$B:$B)*($A20=[1]table1!$C:$C),0))</f>
-        <v>131.6</v>
+        <v>123.9</v>
       </c>
       <c r="M20" s="10"/>
       <c r="N20" s="10" cm="1">
         <f t="array" ref="N20">INDEX([1]table1!M:M,MATCH(1,($A$1=[1]table1!$B:$B)*($A20=[1]table1!$C:$C),0))</f>
-        <v>13.8</v>
+        <v>14.4</v>
       </c>
       <c r="O20" s="10" cm="1">
         <f t="array" ref="O20">INDEX([1]table1!N:N,MATCH(1,($A$1=[1]table1!$B:$B)*($A20=[1]table1!$C:$C),0))</f>
-        <v>7.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="P20" s="10" cm="1">
         <f t="array" ref="P20">INDEX([1]table1!O:O,MATCH(1,($A$1=[1]table1!$B:$B)*($A20=[1]table1!$C:$C),0))</f>
-        <v>22.2</v>
+        <v>20.9</v>
       </c>
       <c r="Q20" s="10"/>
       <c r="R20" s="10" cm="1">
         <f t="array" ref="R20">INDEX([1]table1!P:P,MATCH(1,($A$1=[1]table1!$B:$B)*($A20=[1]table1!$C:$C),0))</f>
-        <v>92.8</v>
+        <v>94.4</v>
       </c>
       <c r="S20" s="10" cm="1">
         <f t="array" ref="S20">INDEX([1]table1!Q:Q,MATCH(1,($A$1=[1]table1!$B:$B)*($A20=[1]table1!$C:$C),0))</f>
-        <v>51.7</v>
+        <v>58.9</v>
       </c>
       <c r="T20" s="10" cm="1">
         <f t="array" ref="T20">INDEX([1]table1!R:R,MATCH(1,($A$1=[1]table1!$B:$B)*($A20=[1]table1!$C:$C),0))</f>
-        <v>152.4</v>
+        <v>143.4</v>
       </c>
       <c r="U20" s="10"/>
       <c r="V20" s="10" cm="1">
         <f t="array" ref="V20">INDEX([1]table1!S:S,MATCH(1,($A$1=[1]table1!$B:$B)*($A20=[1]table1!$C:$C),0))</f>
-        <v>17.8</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="W20" s="10" cm="1">
         <f t="array" ref="W20">INDEX([1]table1!T:T,MATCH(1,($A$1=[1]table1!$B:$B)*($A20=[1]table1!$C:$C),0))</f>
-        <v>11.4</v>
+        <v>13</v>
       </c>
       <c r="X20" s="10" cm="1">
         <f t="array" ref="X20">INDEX([1]table1!U:U,MATCH(1,($A$1=[1]table1!$B:$B)*($A20=[1]table1!$C:$C),0))</f>
-        <v>25.7</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -4764,77 +4764,77 @@
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="B25" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="11" t="str">
+      <c r="J25" s="23" t="str">
         <f>J3</f>
         <v xml:space="preserve"> 2016 reallocation approach</v>
       </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="11" t="s">
+      <c r="R25" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
     </row>
     <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="12" t="str">
+      <c r="B26" s="24" t="str">
         <f>E23</f>
         <v>YLDs</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="12" t="str">
+      <c r="J26" s="24" t="str">
         <f>B26</f>
         <v>YLDs</v>
       </c>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="12" t="s">
+      <c r="N26" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="12" t="str">
+      <c r="R26" s="24" t="str">
         <f>J26</f>
         <v>YLDs</v>
       </c>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
       <c r="U26" s="2"/>
-      <c r="V26" s="12" t="s">
+      <c r="V26" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
@@ -4928,52 +4928,52 @@
       </c>
       <c r="J28" s="5" cm="1">
         <f t="array" ref="J28">INDEX([1]table1!J:J,MATCH(1,($A$23=[1]table1!$B:$B)*($A28=[1]table1!$C:$C),0))</f>
-        <v>238.3</v>
+        <v>247.2</v>
       </c>
       <c r="K28" s="5" cm="1">
         <f t="array" ref="K28">INDEX([1]table1!K:K,MATCH(1,($A$23=[1]table1!$B:$B)*($A28=[1]table1!$C:$C),0))</f>
-        <v>112.3</v>
+        <v>140.19999999999999</v>
       </c>
       <c r="L28" s="5" cm="1">
         <f t="array" ref="L28">INDEX([1]table1!L:L,MATCH(1,($A$23=[1]table1!$B:$B)*($A28=[1]table1!$C:$C),0))</f>
-        <v>427.9</v>
+        <v>401</v>
       </c>
       <c r="N28" s="5" cm="1">
         <f t="array" ref="N28">INDEX([1]table1!M:M,MATCH(1,($A$23=[1]table1!$B:$B)*($A28=[1]table1!$C:$C),0))</f>
-        <v>27.7</v>
+        <v>28.7</v>
       </c>
       <c r="O28" s="5" cm="1">
         <f t="array" ref="O28">INDEX([1]table1!N:N,MATCH(1,($A$23=[1]table1!$B:$B)*($A28=[1]table1!$C:$C),0))</f>
-        <v>17.5</v>
+        <v>21.9</v>
       </c>
       <c r="P28" s="5" cm="1">
         <f t="array" ref="P28">INDEX([1]table1!O:O,MATCH(1,($A$23=[1]table1!$B:$B)*($A28=[1]table1!$C:$C),0))</f>
-        <v>38.700000000000003</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="R28" s="5" cm="1">
         <f t="array" ref="R28">INDEX([1]table1!P:P,MATCH(1,($A$23=[1]table1!$B:$B)*($A28=[1]table1!$C:$C),0))</f>
-        <v>238.3</v>
+        <v>247.2</v>
       </c>
       <c r="S28" s="5" cm="1">
         <f t="array" ref="S28">INDEX([1]table1!Q:Q,MATCH(1,($A$23=[1]table1!$B:$B)*($A28=[1]table1!$C:$C),0))</f>
-        <v>112.3</v>
+        <v>140.19999999999999</v>
       </c>
       <c r="T28" s="5" cm="1">
         <f t="array" ref="T28">INDEX([1]table1!R:R,MATCH(1,($A$23=[1]table1!$B:$B)*($A28=[1]table1!$C:$C),0))</f>
-        <v>427.9</v>
+        <v>401</v>
       </c>
       <c r="U28" s="5"/>
       <c r="V28" s="5" cm="1">
         <f t="array" ref="V28">INDEX([1]table1!S:S,MATCH(1,($A$23=[1]table1!$B:$B)*($A28=[1]table1!$C:$C),0))</f>
-        <v>27.7</v>
+        <v>28.7</v>
       </c>
       <c r="W28" s="5" cm="1">
         <f t="array" ref="W28">INDEX([1]table1!T:T,MATCH(1,($A$23=[1]table1!$B:$B)*($A28=[1]table1!$C:$C),0))</f>
-        <v>17.5</v>
+        <v>21.9</v>
       </c>
       <c r="X28" s="5" cm="1">
         <f t="array" ref="X28">INDEX([1]table1!U:U,MATCH(1,($A$23=[1]table1!$B:$B)*($A28=[1]table1!$C:$C),0))</f>
-        <v>38.700000000000003</v>
+        <v>36.200000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5058,52 +5058,52 @@
       </c>
       <c r="J31" s="5" cm="1">
         <f t="array" ref="J31">INDEX([1]table1!J:J,MATCH(1,($A$23=[1]table1!$B:$B)*($A31=[1]table1!$C:$C),0))</f>
-        <v>50.8</v>
+        <v>53.9</v>
       </c>
       <c r="K31" s="5" cm="1">
         <f t="array" ref="K31">INDEX([1]table1!K:K,MATCH(1,($A$23=[1]table1!$B:$B)*($A31=[1]table1!$C:$C),0))</f>
-        <v>22.6</v>
+        <v>30.7</v>
       </c>
       <c r="L31" s="5" cm="1">
         <f t="array" ref="L31">INDEX([1]table1!L:L,MATCH(1,($A$23=[1]table1!$B:$B)*($A31=[1]table1!$C:$C),0))</f>
-        <v>94</v>
+        <v>87.5</v>
       </c>
       <c r="N31" s="5" cm="1">
         <f t="array" ref="N31">INDEX([1]table1!M:M,MATCH(1,($A$23=[1]table1!$B:$B)*($A31=[1]table1!$C:$C),0))</f>
-        <v>29.3</v>
+        <v>31.1</v>
       </c>
       <c r="O31" s="5" cm="1">
         <f t="array" ref="O31">INDEX([1]table1!N:N,MATCH(1,($A$23=[1]table1!$B:$B)*($A31=[1]table1!$C:$C),0))</f>
-        <v>17.5</v>
+        <v>23.7</v>
       </c>
       <c r="P31" s="5" cm="1">
         <f t="array" ref="P31">INDEX([1]table1!O:O,MATCH(1,($A$23=[1]table1!$B:$B)*($A31=[1]table1!$C:$C),0))</f>
-        <v>42.1</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="R31" s="5" cm="1">
         <f t="array" ref="R31">INDEX([1]table1!P:P,MATCH(1,($A$23=[1]table1!$B:$B)*($A31=[1]table1!$C:$C),0))</f>
-        <v>50.8</v>
+        <v>53.9</v>
       </c>
       <c r="S31" s="5" cm="1">
         <f t="array" ref="S31">INDEX([1]table1!Q:Q,MATCH(1,($A$23=[1]table1!$B:$B)*($A31=[1]table1!$C:$C),0))</f>
-        <v>22.6</v>
+        <v>30.7</v>
       </c>
       <c r="T31" s="5" cm="1">
         <f t="array" ref="T31">INDEX([1]table1!R:R,MATCH(1,($A$23=[1]table1!$B:$B)*($A31=[1]table1!$C:$C),0))</f>
-        <v>94</v>
+        <v>87.5</v>
       </c>
       <c r="U31" s="5"/>
       <c r="V31" s="5" cm="1">
         <f t="array" ref="V31">INDEX([1]table1!S:S,MATCH(1,($A$23=[1]table1!$B:$B)*($A31=[1]table1!$C:$C),0))</f>
-        <v>29.3</v>
+        <v>31.1</v>
       </c>
       <c r="W31" s="5" cm="1">
         <f t="array" ref="W31">INDEX([1]table1!T:T,MATCH(1,($A$23=[1]table1!$B:$B)*($A31=[1]table1!$C:$C),0))</f>
-        <v>17.5</v>
+        <v>23.7</v>
       </c>
       <c r="X31" s="5" cm="1">
         <f t="array" ref="X31">INDEX([1]table1!U:U,MATCH(1,($A$23=[1]table1!$B:$B)*($A31=[1]table1!$C:$C),0))</f>
-        <v>42.1</v>
+        <v>39.200000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
@@ -5136,52 +5136,52 @@
       </c>
       <c r="J32" s="5" cm="1">
         <f t="array" ref="J32">INDEX([1]table1!J:J,MATCH(1,($A$23=[1]table1!$B:$B)*($A32=[1]table1!$C:$C),0))</f>
-        <v>89.2</v>
+        <v>92.8</v>
       </c>
       <c r="K32" s="5" cm="1">
         <f t="array" ref="K32">INDEX([1]table1!K:K,MATCH(1,($A$23=[1]table1!$B:$B)*($A32=[1]table1!$C:$C),0))</f>
-        <v>40.9</v>
+        <v>51.9</v>
       </c>
       <c r="L32" s="5" cm="1">
         <f t="array" ref="L32">INDEX([1]table1!L:L,MATCH(1,($A$23=[1]table1!$B:$B)*($A32=[1]table1!$C:$C),0))</f>
-        <v>162.9</v>
+        <v>152.6</v>
       </c>
       <c r="N32" s="5" cm="1">
         <f t="array" ref="N32">INDEX([1]table1!M:M,MATCH(1,($A$23=[1]table1!$B:$B)*($A32=[1]table1!$C:$C),0))</f>
-        <v>28.3</v>
+        <v>29.5</v>
       </c>
       <c r="O32" s="5" cm="1">
         <f t="array" ref="O32">INDEX([1]table1!N:N,MATCH(1,($A$23=[1]table1!$B:$B)*($A32=[1]table1!$C:$C),0))</f>
-        <v>17.399999999999999</v>
+        <v>22.1</v>
       </c>
       <c r="P32" s="5" cm="1">
         <f t="array" ref="P32">INDEX([1]table1!O:O,MATCH(1,($A$23=[1]table1!$B:$B)*($A32=[1]table1!$C:$C),0))</f>
-        <v>39.9</v>
+        <v>37.4</v>
       </c>
       <c r="R32" s="5" cm="1">
         <f t="array" ref="R32">INDEX([1]table1!P:P,MATCH(1,($A$23=[1]table1!$B:$B)*($A32=[1]table1!$C:$C),0))</f>
-        <v>89.2</v>
+        <v>92.8</v>
       </c>
       <c r="S32" s="5" cm="1">
         <f t="array" ref="S32">INDEX([1]table1!Q:Q,MATCH(1,($A$23=[1]table1!$B:$B)*($A32=[1]table1!$C:$C),0))</f>
-        <v>40.9</v>
+        <v>51.9</v>
       </c>
       <c r="T32" s="5" cm="1">
         <f t="array" ref="T32">INDEX([1]table1!R:R,MATCH(1,($A$23=[1]table1!$B:$B)*($A32=[1]table1!$C:$C),0))</f>
-        <v>162.9</v>
+        <v>152.6</v>
       </c>
       <c r="U32" s="5"/>
       <c r="V32" s="5" cm="1">
         <f t="array" ref="V32">INDEX([1]table1!S:S,MATCH(1,($A$23=[1]table1!$B:$B)*($A32=[1]table1!$C:$C),0))</f>
-        <v>28.3</v>
+        <v>29.5</v>
       </c>
       <c r="W32" s="5" cm="1">
         <f t="array" ref="W32">INDEX([1]table1!T:T,MATCH(1,($A$23=[1]table1!$B:$B)*($A32=[1]table1!$C:$C),0))</f>
-        <v>17.399999999999999</v>
+        <v>22.1</v>
       </c>
       <c r="X32" s="5" cm="1">
         <f t="array" ref="X32">INDEX([1]table1!U:U,MATCH(1,($A$23=[1]table1!$B:$B)*($A32=[1]table1!$C:$C),0))</f>
-        <v>39.9</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
@@ -5214,52 +5214,52 @@
       </c>
       <c r="J33" s="5" cm="1">
         <f t="array" ref="J33">INDEX([1]table1!J:J,MATCH(1,($A$23=[1]table1!$B:$B)*($A33=[1]table1!$C:$C),0))</f>
-        <v>82</v>
+        <v>83.5</v>
       </c>
       <c r="K33" s="5" cm="1">
         <f t="array" ref="K33">INDEX([1]table1!K:K,MATCH(1,($A$23=[1]table1!$B:$B)*($A33=[1]table1!$C:$C),0))</f>
-        <v>38.299999999999997</v>
+        <v>45.6</v>
       </c>
       <c r="L33" s="5" cm="1">
         <f t="array" ref="L33">INDEX([1]table1!L:L,MATCH(1,($A$23=[1]table1!$B:$B)*($A33=[1]table1!$C:$C),0))</f>
-        <v>147.69999999999999</v>
+        <v>138.69999999999999</v>
       </c>
       <c r="N33" s="5" cm="1">
         <f t="array" ref="N33">INDEX([1]table1!M:M,MATCH(1,($A$23=[1]table1!$B:$B)*($A33=[1]table1!$C:$C),0))</f>
-        <v>26.4</v>
+        <v>26.9</v>
       </c>
       <c r="O33" s="5" cm="1">
         <f t="array" ref="O33">INDEX([1]table1!N:N,MATCH(1,($A$23=[1]table1!$B:$B)*($A33=[1]table1!$C:$C),0))</f>
-        <v>16.600000000000001</v>
+        <v>19.8</v>
       </c>
       <c r="P33" s="5" cm="1">
         <f t="array" ref="P33">INDEX([1]table1!O:O,MATCH(1,($A$23=[1]table1!$B:$B)*($A33=[1]table1!$C:$C),0))</f>
-        <v>36.6</v>
+        <v>34.4</v>
       </c>
       <c r="R33" s="5" cm="1">
         <f t="array" ref="R33">INDEX([1]table1!P:P,MATCH(1,($A$23=[1]table1!$B:$B)*($A33=[1]table1!$C:$C),0))</f>
-        <v>82</v>
+        <v>83.5</v>
       </c>
       <c r="S33" s="5" cm="1">
         <f t="array" ref="S33">INDEX([1]table1!Q:Q,MATCH(1,($A$23=[1]table1!$B:$B)*($A33=[1]table1!$C:$C),0))</f>
-        <v>38.299999999999997</v>
+        <v>45.6</v>
       </c>
       <c r="T33" s="5" cm="1">
         <f t="array" ref="T33">INDEX([1]table1!R:R,MATCH(1,($A$23=[1]table1!$B:$B)*($A33=[1]table1!$C:$C),0))</f>
-        <v>147.69999999999999</v>
+        <v>138.69999999999999</v>
       </c>
       <c r="U33" s="5"/>
       <c r="V33" s="5" cm="1">
         <f t="array" ref="V33">INDEX([1]table1!S:S,MATCH(1,($A$23=[1]table1!$B:$B)*($A33=[1]table1!$C:$C),0))</f>
-        <v>26.4</v>
+        <v>26.9</v>
       </c>
       <c r="W33" s="5" cm="1">
         <f t="array" ref="W33">INDEX([1]table1!T:T,MATCH(1,($A$23=[1]table1!$B:$B)*($A33=[1]table1!$C:$C),0))</f>
-        <v>16.600000000000001</v>
+        <v>19.8</v>
       </c>
       <c r="X33" s="5" cm="1">
         <f t="array" ref="X33">INDEX([1]table1!U:U,MATCH(1,($A$23=[1]table1!$B:$B)*($A33=[1]table1!$C:$C),0))</f>
-        <v>36.6</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
@@ -5292,52 +5292,52 @@
       </c>
       <c r="J34" s="5" cm="1">
         <f t="array" ref="J34">INDEX([1]table1!J:J,MATCH(1,($A$23=[1]table1!$B:$B)*($A34=[1]table1!$C:$C),0))</f>
-        <v>16.2</v>
+        <v>16.8</v>
       </c>
       <c r="K34" s="5" cm="1">
         <f t="array" ref="K34">INDEX([1]table1!K:K,MATCH(1,($A$23=[1]table1!$B:$B)*($A34=[1]table1!$C:$C),0))</f>
-        <v>8.1999999999999993</v>
+        <v>9.4</v>
       </c>
       <c r="L34" s="5" cm="1">
         <f t="array" ref="L34">INDEX([1]table1!L:L,MATCH(1,($A$23=[1]table1!$B:$B)*($A34=[1]table1!$C:$C),0))</f>
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="N34" s="5" cm="1">
         <f t="array" ref="N34">INDEX([1]table1!M:M,MATCH(1,($A$23=[1]table1!$B:$B)*($A34=[1]table1!$C:$C),0))</f>
-        <v>26.3</v>
+        <v>27.3</v>
       </c>
       <c r="O34" s="5" cm="1">
         <f t="array" ref="O34">INDEX([1]table1!N:N,MATCH(1,($A$23=[1]table1!$B:$B)*($A34=[1]table1!$C:$C),0))</f>
-        <v>18.2</v>
+        <v>20.8</v>
       </c>
       <c r="P34" s="5" cm="1">
         <f t="array" ref="P34">INDEX([1]table1!O:O,MATCH(1,($A$23=[1]table1!$B:$B)*($A34=[1]table1!$C:$C),0))</f>
-        <v>34.9</v>
+        <v>34.1</v>
       </c>
       <c r="R34" s="5" cm="1">
         <f t="array" ref="R34">INDEX([1]table1!P:P,MATCH(1,($A$23=[1]table1!$B:$B)*($A34=[1]table1!$C:$C),0))</f>
-        <v>16.2</v>
+        <v>16.8</v>
       </c>
       <c r="S34" s="5" cm="1">
         <f t="array" ref="S34">INDEX([1]table1!Q:Q,MATCH(1,($A$23=[1]table1!$B:$B)*($A34=[1]table1!$C:$C),0))</f>
-        <v>8.1999999999999993</v>
+        <v>9.4</v>
       </c>
       <c r="T34" s="5" cm="1">
         <f t="array" ref="T34">INDEX([1]table1!R:R,MATCH(1,($A$23=[1]table1!$B:$B)*($A34=[1]table1!$C:$C),0))</f>
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="U34" s="5"/>
       <c r="V34" s="5" cm="1">
         <f t="array" ref="V34">INDEX([1]table1!S:S,MATCH(1,($A$23=[1]table1!$B:$B)*($A34=[1]table1!$C:$C),0))</f>
-        <v>26.3</v>
+        <v>27.3</v>
       </c>
       <c r="W34" s="5" cm="1">
         <f t="array" ref="W34">INDEX([1]table1!T:T,MATCH(1,($A$23=[1]table1!$B:$B)*($A34=[1]table1!$C:$C),0))</f>
-        <v>18.2</v>
+        <v>20.8</v>
       </c>
       <c r="X34" s="5" cm="1">
         <f t="array" ref="X34">INDEX([1]table1!U:U,MATCH(1,($A$23=[1]table1!$B:$B)*($A34=[1]table1!$C:$C),0))</f>
-        <v>34.9</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5422,52 +5422,52 @@
       </c>
       <c r="J37" s="5" cm="1">
         <f t="array" ref="J37">INDEX([1]table1!J:J,MATCH(1,($A$23=[1]table1!$B:$B)*($A37=[1]table1!$C:$C),0))</f>
-        <v>25.9</v>
+        <v>27</v>
       </c>
       <c r="K37" s="5" cm="1">
         <f t="array" ref="K37">INDEX([1]table1!K:K,MATCH(1,($A$23=[1]table1!$B:$B)*($A37=[1]table1!$C:$C),0))</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L37" s="5" cm="1">
         <f t="array" ref="L37">INDEX([1]table1!L:L,MATCH(1,($A$23=[1]table1!$B:$B)*($A37=[1]table1!$C:$C),0))</f>
-        <v>45.4</v>
+        <v>44.4</v>
       </c>
       <c r="N37" s="5" cm="1">
         <f t="array" ref="N37">INDEX([1]table1!M:M,MATCH(1,($A$23=[1]table1!$B:$B)*($A37=[1]table1!$C:$C),0))</f>
-        <v>25.7</v>
+        <v>26.7</v>
       </c>
       <c r="O37" s="5" cm="1">
         <f t="array" ref="O37">INDEX([1]table1!N:N,MATCH(1,($A$23=[1]table1!$B:$B)*($A37=[1]table1!$C:$C),0))</f>
-        <v>17.399999999999999</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="P37" s="5" cm="1">
         <f t="array" ref="P37">INDEX([1]table1!O:O,MATCH(1,($A$23=[1]table1!$B:$B)*($A37=[1]table1!$C:$C),0))</f>
-        <v>34.4</v>
+        <v>33.6</v>
       </c>
       <c r="R37" s="5" cm="1">
         <f t="array" ref="R37">INDEX([1]table1!P:P,MATCH(1,($A$23=[1]table1!$B:$B)*($A37=[1]table1!$C:$C),0))</f>
-        <v>25.9</v>
+        <v>27</v>
       </c>
       <c r="S37" s="5" cm="1">
         <f t="array" ref="S37">INDEX([1]table1!Q:Q,MATCH(1,($A$23=[1]table1!$B:$B)*($A37=[1]table1!$C:$C),0))</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T37" s="5" cm="1">
         <f t="array" ref="T37">INDEX([1]table1!R:R,MATCH(1,($A$23=[1]table1!$B:$B)*($A37=[1]table1!$C:$C),0))</f>
-        <v>45.4</v>
+        <v>44.4</v>
       </c>
       <c r="U37" s="5"/>
       <c r="V37" s="5" cm="1">
         <f t="array" ref="V37">INDEX([1]table1!S:S,MATCH(1,($A$23=[1]table1!$B:$B)*($A37=[1]table1!$C:$C),0))</f>
-        <v>25.7</v>
+        <v>26.7</v>
       </c>
       <c r="W37" s="5" cm="1">
         <f t="array" ref="W37">INDEX([1]table1!T:T,MATCH(1,($A$23=[1]table1!$B:$B)*($A37=[1]table1!$C:$C),0))</f>
-        <v>17.399999999999999</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="X37" s="5" cm="1">
         <f t="array" ref="X37">INDEX([1]table1!U:U,MATCH(1,($A$23=[1]table1!$B:$B)*($A37=[1]table1!$C:$C),0))</f>
-        <v>34.4</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
@@ -5500,52 +5500,52 @@
       </c>
       <c r="J38" s="5" cm="1">
         <f t="array" ref="J38">INDEX([1]table1!J:J,MATCH(1,($A$23=[1]table1!$B:$B)*($A38=[1]table1!$C:$C),0))</f>
-        <v>22.1</v>
+        <v>22.7</v>
       </c>
       <c r="K38" s="5" cm="1">
         <f t="array" ref="K38">INDEX([1]table1!K:K,MATCH(1,($A$23=[1]table1!$B:$B)*($A38=[1]table1!$C:$C),0))</f>
-        <v>10.9</v>
+        <v>12.6</v>
       </c>
       <c r="L38" s="5" cm="1">
         <f t="array" ref="L38">INDEX([1]table1!L:L,MATCH(1,($A$23=[1]table1!$B:$B)*($A38=[1]table1!$C:$C),0))</f>
-        <v>39</v>
+        <v>37.4</v>
       </c>
       <c r="N38" s="5" cm="1">
         <f t="array" ref="N38">INDEX([1]table1!M:M,MATCH(1,($A$23=[1]table1!$B:$B)*($A38=[1]table1!$C:$C),0))</f>
-        <v>31</v>
+        <v>31.8</v>
       </c>
       <c r="O38" s="5" cm="1">
         <f t="array" ref="O38">INDEX([1]table1!N:N,MATCH(1,($A$23=[1]table1!$B:$B)*($A38=[1]table1!$C:$C),0))</f>
-        <v>20.6</v>
+        <v>23.9</v>
       </c>
       <c r="P38" s="5" cm="1">
         <f t="array" ref="P38">INDEX([1]table1!O:O,MATCH(1,($A$23=[1]table1!$B:$B)*($A38=[1]table1!$C:$C),0))</f>
-        <v>42</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="R38" s="5" cm="1">
         <f t="array" ref="R38">INDEX([1]table1!P:P,MATCH(1,($A$23=[1]table1!$B:$B)*($A38=[1]table1!$C:$C),0))</f>
-        <v>22.1</v>
+        <v>22.7</v>
       </c>
       <c r="S38" s="5" cm="1">
         <f t="array" ref="S38">INDEX([1]table1!Q:Q,MATCH(1,($A$23=[1]table1!$B:$B)*($A38=[1]table1!$C:$C),0))</f>
-        <v>10.9</v>
+        <v>12.6</v>
       </c>
       <c r="T38" s="5" cm="1">
         <f t="array" ref="T38">INDEX([1]table1!R:R,MATCH(1,($A$23=[1]table1!$B:$B)*($A38=[1]table1!$C:$C),0))</f>
-        <v>39</v>
+        <v>37.4</v>
       </c>
       <c r="U38" s="5"/>
       <c r="V38" s="5" cm="1">
         <f t="array" ref="V38">INDEX([1]table1!S:S,MATCH(1,($A$23=[1]table1!$B:$B)*($A38=[1]table1!$C:$C),0))</f>
-        <v>31</v>
+        <v>31.8</v>
       </c>
       <c r="W38" s="5" cm="1">
         <f t="array" ref="W38">INDEX([1]table1!T:T,MATCH(1,($A$23=[1]table1!$B:$B)*($A38=[1]table1!$C:$C),0))</f>
-        <v>20.6</v>
+        <v>23.9</v>
       </c>
       <c r="X38" s="5" cm="1">
         <f t="array" ref="X38">INDEX([1]table1!U:U,MATCH(1,($A$23=[1]table1!$B:$B)*($A38=[1]table1!$C:$C),0))</f>
-        <v>42</v>
+        <v>40.299999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
@@ -5578,52 +5578,52 @@
       </c>
       <c r="J39" s="5" cm="1">
         <f t="array" ref="J39">INDEX([1]table1!J:J,MATCH(1,($A$23=[1]table1!$B:$B)*($A39=[1]table1!$C:$C),0))</f>
-        <v>35.1</v>
+        <v>37</v>
       </c>
       <c r="K39" s="5" cm="1">
         <f t="array" ref="K39">INDEX([1]table1!K:K,MATCH(1,($A$23=[1]table1!$B:$B)*($A39=[1]table1!$C:$C),0))</f>
-        <v>16.3</v>
+        <v>20.9</v>
       </c>
       <c r="L39" s="5" cm="1">
         <f t="array" ref="L39">INDEX([1]table1!L:L,MATCH(1,($A$23=[1]table1!$B:$B)*($A39=[1]table1!$C:$C),0))</f>
-        <v>64.099999999999994</v>
+        <v>60.7</v>
       </c>
       <c r="N39" s="5" cm="1">
         <f t="array" ref="N39">INDEX([1]table1!M:M,MATCH(1,($A$23=[1]table1!$B:$B)*($A39=[1]table1!$C:$C),0))</f>
-        <v>29</v>
+        <v>30.5</v>
       </c>
       <c r="O39" s="5" cm="1">
         <f t="array" ref="O39">INDEX([1]table1!N:N,MATCH(1,($A$23=[1]table1!$B:$B)*($A39=[1]table1!$C:$C),0))</f>
-        <v>18.100000000000001</v>
+        <v>23.2</v>
       </c>
       <c r="P39" s="5" cm="1">
         <f t="array" ref="P39">INDEX([1]table1!O:O,MATCH(1,($A$23=[1]table1!$B:$B)*($A39=[1]table1!$C:$C),0))</f>
-        <v>40.9</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="R39" s="5" cm="1">
         <f t="array" ref="R39">INDEX([1]table1!P:P,MATCH(1,($A$23=[1]table1!$B:$B)*($A39=[1]table1!$C:$C),0))</f>
-        <v>35.1</v>
+        <v>37</v>
       </c>
       <c r="S39" s="5" cm="1">
         <f t="array" ref="S39">INDEX([1]table1!Q:Q,MATCH(1,($A$23=[1]table1!$B:$B)*($A39=[1]table1!$C:$C),0))</f>
-        <v>16.3</v>
+        <v>20.9</v>
       </c>
       <c r="T39" s="5" cm="1">
         <f t="array" ref="T39">INDEX([1]table1!R:R,MATCH(1,($A$23=[1]table1!$B:$B)*($A39=[1]table1!$C:$C),0))</f>
-        <v>64.099999999999994</v>
+        <v>60.7</v>
       </c>
       <c r="U39" s="5"/>
       <c r="V39" s="5" cm="1">
         <f t="array" ref="V39">INDEX([1]table1!S:S,MATCH(1,($A$23=[1]table1!$B:$B)*($A39=[1]table1!$C:$C),0))</f>
-        <v>29</v>
+        <v>30.5</v>
       </c>
       <c r="W39" s="5" cm="1">
         <f t="array" ref="W39">INDEX([1]table1!T:T,MATCH(1,($A$23=[1]table1!$B:$B)*($A39=[1]table1!$C:$C),0))</f>
-        <v>18.100000000000001</v>
+        <v>23.2</v>
       </c>
       <c r="X39" s="5" cm="1">
         <f t="array" ref="X39">INDEX([1]table1!U:U,MATCH(1,($A$23=[1]table1!$B:$B)*($A39=[1]table1!$C:$C),0))</f>
-        <v>40.9</v>
+        <v>38.700000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
@@ -5656,52 +5656,52 @@
       </c>
       <c r="J40" s="5" cm="1">
         <f t="array" ref="J40">INDEX([1]table1!J:J,MATCH(1,($A$23=[1]table1!$B:$B)*($A40=[1]table1!$C:$C),0))</f>
-        <v>39.1</v>
+        <v>42.6</v>
       </c>
       <c r="K40" s="5" cm="1">
         <f t="array" ref="K40">INDEX([1]table1!K:K,MATCH(1,($A$23=[1]table1!$B:$B)*($A40=[1]table1!$C:$C),0))</f>
-        <v>17.8</v>
+        <v>24.4</v>
       </c>
       <c r="L40" s="5" cm="1">
         <f t="array" ref="L40">INDEX([1]table1!L:L,MATCH(1,($A$23=[1]table1!$B:$B)*($A40=[1]table1!$C:$C),0))</f>
-        <v>71.400000000000006</v>
+        <v>68.5</v>
       </c>
       <c r="N40" s="5" cm="1">
         <f t="array" ref="N40">INDEX([1]table1!M:M,MATCH(1,($A$23=[1]table1!$B:$B)*($A40=[1]table1!$C:$C),0))</f>
-        <v>30</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="O40" s="5" cm="1">
         <f t="array" ref="O40">INDEX([1]table1!N:N,MATCH(1,($A$23=[1]table1!$B:$B)*($A40=[1]table1!$C:$C),0))</f>
-        <v>18.3</v>
+        <v>25.1</v>
       </c>
       <c r="P40" s="5" cm="1">
         <f t="array" ref="P40">INDEX([1]table1!O:O,MATCH(1,($A$23=[1]table1!$B:$B)*($A40=[1]table1!$C:$C),0))</f>
-        <v>42.6</v>
+        <v>40.9</v>
       </c>
       <c r="R40" s="5" cm="1">
         <f t="array" ref="R40">INDEX([1]table1!P:P,MATCH(1,($A$23=[1]table1!$B:$B)*($A40=[1]table1!$C:$C),0))</f>
-        <v>39.1</v>
+        <v>42.6</v>
       </c>
       <c r="S40" s="5" cm="1">
         <f t="array" ref="S40">INDEX([1]table1!Q:Q,MATCH(1,($A$23=[1]table1!$B:$B)*($A40=[1]table1!$C:$C),0))</f>
-        <v>17.8</v>
+        <v>24.4</v>
       </c>
       <c r="T40" s="5" cm="1">
         <f t="array" ref="T40">INDEX([1]table1!R:R,MATCH(1,($A$23=[1]table1!$B:$B)*($A40=[1]table1!$C:$C),0))</f>
-        <v>71.400000000000006</v>
+        <v>68.5</v>
       </c>
       <c r="U40" s="5"/>
       <c r="V40" s="5" cm="1">
         <f t="array" ref="V40">INDEX([1]table1!S:S,MATCH(1,($A$23=[1]table1!$B:$B)*($A40=[1]table1!$C:$C),0))</f>
-        <v>30</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="W40" s="5" cm="1">
         <f t="array" ref="W40">INDEX([1]table1!T:T,MATCH(1,($A$23=[1]table1!$B:$B)*($A40=[1]table1!$C:$C),0))</f>
-        <v>18.3</v>
+        <v>25.1</v>
       </c>
       <c r="X40" s="5" cm="1">
         <f t="array" ref="X40">INDEX([1]table1!U:U,MATCH(1,($A$23=[1]table1!$B:$B)*($A40=[1]table1!$C:$C),0))</f>
-        <v>42.6</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
@@ -5734,52 +5734,52 @@
       </c>
       <c r="J41" s="5" cm="1">
         <f t="array" ref="J41">INDEX([1]table1!J:J,MATCH(1,($A$23=[1]table1!$B:$B)*($A41=[1]table1!$C:$C),0))</f>
-        <v>58.3</v>
+        <v>58.7</v>
       </c>
       <c r="K41" s="5" cm="1">
         <f t="array" ref="K41">INDEX([1]table1!K:K,MATCH(1,($A$23=[1]table1!$B:$B)*($A41=[1]table1!$C:$C),0))</f>
-        <v>26.5</v>
+        <v>31.8</v>
       </c>
       <c r="L41" s="5" cm="1">
         <f t="array" ref="L41">INDEX([1]table1!L:L,MATCH(1,($A$23=[1]table1!$B:$B)*($A41=[1]table1!$C:$C),0))</f>
-        <v>106</v>
+        <v>97.8</v>
       </c>
       <c r="N41" s="5" cm="1">
         <f t="array" ref="N41">INDEX([1]table1!M:M,MATCH(1,($A$23=[1]table1!$B:$B)*($A41=[1]table1!$C:$C),0))</f>
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="O41" s="5" cm="1">
         <f t="array" ref="O41">INDEX([1]table1!N:N,MATCH(1,($A$23=[1]table1!$B:$B)*($A41=[1]table1!$C:$C),0))</f>
-        <v>15.9</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="P41" s="5" cm="1">
         <f t="array" ref="P41">INDEX([1]table1!O:O,MATCH(1,($A$23=[1]table1!$B:$B)*($A41=[1]table1!$C:$C),0))</f>
-        <v>36.4</v>
+        <v>33.6</v>
       </c>
       <c r="R41" s="5" cm="1">
         <f t="array" ref="R41">INDEX([1]table1!P:P,MATCH(1,($A$23=[1]table1!$B:$B)*($A41=[1]table1!$C:$C),0))</f>
-        <v>58.3</v>
+        <v>58.7</v>
       </c>
       <c r="S41" s="5" cm="1">
         <f t="array" ref="S41">INDEX([1]table1!Q:Q,MATCH(1,($A$23=[1]table1!$B:$B)*($A41=[1]table1!$C:$C),0))</f>
-        <v>26.5</v>
+        <v>31.8</v>
       </c>
       <c r="T41" s="5" cm="1">
         <f t="array" ref="T41">INDEX([1]table1!R:R,MATCH(1,($A$23=[1]table1!$B:$B)*($A41=[1]table1!$C:$C),0))</f>
-        <v>106</v>
+        <v>97.8</v>
       </c>
       <c r="U41" s="5"/>
       <c r="V41" s="5" cm="1">
         <f t="array" ref="V41">INDEX([1]table1!S:S,MATCH(1,($A$23=[1]table1!$B:$B)*($A41=[1]table1!$C:$C),0))</f>
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="W41" s="5" cm="1">
         <f t="array" ref="W41">INDEX([1]table1!T:T,MATCH(1,($A$23=[1]table1!$B:$B)*($A41=[1]table1!$C:$C),0))</f>
-        <v>15.9</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="X41" s="5" cm="1">
         <f t="array" ref="X41">INDEX([1]table1!U:U,MATCH(1,($A$23=[1]table1!$B:$B)*($A41=[1]table1!$C:$C),0))</f>
-        <v>36.4</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5814,54 +5814,54 @@
       <c r="I42" s="10"/>
       <c r="J42" s="10" cm="1">
         <f t="array" ref="J42">INDEX([1]table1!J:J,MATCH(1,($A$23=[1]table1!$B:$B)*($A42=[1]table1!$C:$C),0))</f>
-        <v>56.8</v>
+        <v>58.3</v>
       </c>
       <c r="K42" s="10" cm="1">
         <f t="array" ref="K42">INDEX([1]table1!K:K,MATCH(1,($A$23=[1]table1!$B:$B)*($A42=[1]table1!$C:$C),0))</f>
-        <v>25.3</v>
+        <v>32.6</v>
       </c>
       <c r="L42" s="10" cm="1">
         <f t="array" ref="L42">INDEX([1]table1!L:L,MATCH(1,($A$23=[1]table1!$B:$B)*($A42=[1]table1!$C:$C),0))</f>
-        <v>105.2</v>
+        <v>96.2</v>
       </c>
       <c r="M42" s="10"/>
       <c r="N42" s="10" cm="1">
         <f t="array" ref="N42">INDEX([1]table1!M:M,MATCH(1,($A$23=[1]table1!$B:$B)*($A42=[1]table1!$C:$C),0))</f>
-        <v>27.1</v>
+        <v>27.9</v>
       </c>
       <c r="O42" s="10" cm="1">
         <f t="array" ref="O42">INDEX([1]table1!N:N,MATCH(1,($A$23=[1]table1!$B:$B)*($A42=[1]table1!$C:$C),0))</f>
-        <v>16.2</v>
+        <v>20.8</v>
       </c>
       <c r="P42" s="10" cm="1">
         <f t="array" ref="P42">INDEX([1]table1!O:O,MATCH(1,($A$23=[1]table1!$B:$B)*($A42=[1]table1!$C:$C),0))</f>
-        <v>38.799999999999997</v>
+        <v>35.4</v>
       </c>
       <c r="Q42" s="10"/>
       <c r="R42" s="10" cm="1">
         <f t="array" ref="R42">INDEX([1]table1!P:P,MATCH(1,($A$23=[1]table1!$B:$B)*($A42=[1]table1!$C:$C),0))</f>
-        <v>56.8</v>
+        <v>58.3</v>
       </c>
       <c r="S42" s="10" cm="1">
         <f t="array" ref="S42">INDEX([1]table1!Q:Q,MATCH(1,($A$23=[1]table1!$B:$B)*($A42=[1]table1!$C:$C),0))</f>
-        <v>25.3</v>
+        <v>32.6</v>
       </c>
       <c r="T42" s="10" cm="1">
         <f t="array" ref="T42">INDEX([1]table1!R:R,MATCH(1,($A$23=[1]table1!$B:$B)*($A42=[1]table1!$C:$C),0))</f>
-        <v>105.2</v>
+        <v>96.2</v>
       </c>
       <c r="U42" s="10"/>
       <c r="V42" s="10" cm="1">
         <f t="array" ref="V42">INDEX([1]table1!S:S,MATCH(1,($A$23=[1]table1!$B:$B)*($A42=[1]table1!$C:$C),0))</f>
-        <v>27.1</v>
+        <v>27.9</v>
       </c>
       <c r="W42" s="10" cm="1">
         <f t="array" ref="W42">INDEX([1]table1!T:T,MATCH(1,($A$23=[1]table1!$B:$B)*($A42=[1]table1!$C:$C),0))</f>
-        <v>16.2</v>
+        <v>20.8</v>
       </c>
       <c r="X42" s="10" cm="1">
         <f t="array" ref="X42">INDEX([1]table1!U:U,MATCH(1,($A$23=[1]table1!$B:$B)*($A42=[1]table1!$C:$C),0))</f>
-        <v>38.799999999999997</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -5876,77 +5876,77 @@
     <row r="47" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
+      <c r="B48" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="11" t="str">
+      <c r="J48" s="23" t="str">
         <f>J25</f>
         <v xml:space="preserve"> 2016 reallocation approach</v>
       </c>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
       <c r="Q48" s="1"/>
-      <c r="R48" s="11" t="s">
+      <c r="R48" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="23"/>
+      <c r="W48" s="23"/>
+      <c r="X48" s="23"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" s="12" t="str">
+      <c r="B49" s="24" t="str">
         <f>E46</f>
         <v>YLLs</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
       <c r="I49" s="2"/>
-      <c r="J49" s="12" t="str">
+      <c r="J49" s="24" t="str">
         <f>B49</f>
         <v>YLLs</v>
       </c>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
       <c r="M49" s="2"/>
-      <c r="N49" s="12" t="s">
+      <c r="N49" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
       <c r="Q49" s="2"/>
-      <c r="R49" s="12" t="str">
+      <c r="R49" s="24" t="str">
         <f>J49</f>
         <v>YLLs</v>
       </c>
-      <c r="S49" s="12"/>
-      <c r="T49" s="12"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="24"/>
       <c r="U49" s="2"/>
-      <c r="V49" s="12" t="s">
+      <c r="V49" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="W49" s="12"/>
-      <c r="X49" s="12"/>
+      <c r="W49" s="24"/>
+      <c r="X49" s="24"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
@@ -6014,54 +6014,54 @@
       <c r="A51" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="13" cm="1">
+      <c r="B51" s="11" cm="1">
         <f t="array" ref="B51">INDEX([1]table1!D:D,MATCH(1,($A$46=[1]table1!$B:$B)*($A51=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="C51" s="13" cm="1">
+      <c r="C51" s="11" cm="1">
         <f t="array" ref="C51">INDEX([1]table1!E:E,MATCH(1,($A$46=[1]table1!$B:$B)*($A51=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="D51" s="13" cm="1">
+      <c r="D51" s="11" cm="1">
         <f t="array" ref="D51">INDEX([1]table1!F:F,MATCH(1,($A$46=[1]table1!$B:$B)*($A51=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="13" cm="1">
+      <c r="E51" s="12"/>
+      <c r="F51" s="11" cm="1">
         <f t="array" ref="F51">INDEX([1]table1!G:G,MATCH(1,($A$46=[1]table1!$B:$B)*($A51=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="G51" s="13" cm="1">
+      <c r="G51" s="11" cm="1">
         <f t="array" ref="G51">INDEX([1]table1!H:H,MATCH(1,($A$46=[1]table1!$B:$B)*($A51=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="H51" s="13" cm="1">
+      <c r="H51" s="11" cm="1">
         <f t="array" ref="H51">INDEX([1]table1!I:I,MATCH(1,($A$46=[1]table1!$B:$B)*($A51=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
       <c r="J51" s="5" cm="1">
         <f t="array" ref="J51">INDEX([1]table1!J:J,MATCH(1,($A$46=[1]table1!$B:$B)*($A51=[1]table1!$C:$C),0))</f>
-        <v>62.4</v>
+        <v>74</v>
       </c>
       <c r="K51" s="5" cm="1">
         <f t="array" ref="K51">INDEX([1]table1!K:K,MATCH(1,($A$46=[1]table1!$B:$B)*($A51=[1]table1!$C:$C),0))</f>
-        <v>43.8</v>
+        <v>55</v>
       </c>
       <c r="L51" s="5" cm="1">
         <f t="array" ref="L51">INDEX([1]table1!L:L,MATCH(1,($A$46=[1]table1!$B:$B)*($A51=[1]table1!$C:$C),0))</f>
-        <v>97.4</v>
+        <v>108.6</v>
       </c>
       <c r="N51" s="5" cm="1">
         <f t="array" ref="N51">INDEX([1]table1!M:M,MATCH(1,($A$46=[1]table1!$B:$B)*($A51=[1]table1!$C:$C),0))</f>
-        <v>3.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="O51" s="5" cm="1">
         <f t="array" ref="O51">INDEX([1]table1!N:N,MATCH(1,($A$46=[1]table1!$B:$B)*($A51=[1]table1!$C:$C),0))</f>
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P51" s="5" cm="1">
         <f t="array" ref="P51">INDEX([1]table1!O:O,MATCH(1,($A$46=[1]table1!$B:$B)*($A51=[1]table1!$C:$C),0))</f>
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="R51" s="5" cm="1">
         <f t="array" ref="R51">INDEX([1]table1!P:P,MATCH(1,($A$46=[1]table1!$B:$B)*($A51=[1]table1!$C:$C),0))</f>
@@ -6091,13 +6091,13 @@
     </row>
     <row r="52" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
       <c r="I52" s="8"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
@@ -6117,13 +6117,13 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
       <c r="I53" s="2"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -6145,54 +6145,54 @@
       <c r="A54" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="13" cm="1">
+      <c r="B54" s="11" cm="1">
         <f t="array" ref="B54">INDEX([1]table1!D:D,MATCH(1,($A$46=[1]table1!$B:$B)*($A54=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="C54" s="13" cm="1">
+      <c r="C54" s="11" cm="1">
         <f t="array" ref="C54">INDEX([1]table1!E:E,MATCH(1,($A$46=[1]table1!$B:$B)*($A54=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="D54" s="13" cm="1">
+      <c r="D54" s="11" cm="1">
         <f t="array" ref="D54">INDEX([1]table1!F:F,MATCH(1,($A$46=[1]table1!$B:$B)*($A54=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="13" cm="1">
+      <c r="E54" s="12"/>
+      <c r="F54" s="11" cm="1">
         <f t="array" ref="F54">INDEX([1]table1!G:G,MATCH(1,($A$46=[1]table1!$B:$B)*($A54=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="G54" s="13" cm="1">
+      <c r="G54" s="11" cm="1">
         <f t="array" ref="G54">INDEX([1]table1!H:H,MATCH(1,($A$46=[1]table1!$B:$B)*($A54=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="H54" s="13" cm="1">
+      <c r="H54" s="11" cm="1">
         <f t="array" ref="H54">INDEX([1]table1!I:I,MATCH(1,($A$46=[1]table1!$B:$B)*($A54=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
       <c r="J54" s="5" cm="1">
         <f t="array" ref="J54">INDEX([1]table1!J:J,MATCH(1,($A$46=[1]table1!$B:$B)*($A54=[1]table1!$C:$C),0))</f>
-        <v>15.3</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="K54" s="5" cm="1">
         <f t="array" ref="K54">INDEX([1]table1!K:K,MATCH(1,($A$46=[1]table1!$B:$B)*($A54=[1]table1!$C:$C),0))</f>
-        <v>9.3000000000000007</v>
+        <v>14.3</v>
       </c>
       <c r="L54" s="5" cm="1">
         <f t="array" ref="L54">INDEX([1]table1!L:L,MATCH(1,($A$46=[1]table1!$B:$B)*($A54=[1]table1!$C:$C),0))</f>
-        <v>26.6</v>
+        <v>31.9</v>
       </c>
       <c r="N54" s="5" cm="1">
         <f t="array" ref="N54">INDEX([1]table1!M:M,MATCH(1,($A$46=[1]table1!$B:$B)*($A54=[1]table1!$C:$C),0))</f>
-        <v>7.9</v>
+        <v>10.6</v>
       </c>
       <c r="O54" s="5" cm="1">
         <f t="array" ref="O54">INDEX([1]table1!N:N,MATCH(1,($A$46=[1]table1!$B:$B)*($A54=[1]table1!$C:$C),0))</f>
-        <v>5</v>
+        <v>7.7</v>
       </c>
       <c r="P54" s="5" cm="1">
         <f t="array" ref="P54">INDEX([1]table1!O:O,MATCH(1,($A$46=[1]table1!$B:$B)*($A54=[1]table1!$C:$C),0))</f>
-        <v>13.1</v>
+        <v>15.7</v>
       </c>
       <c r="R54" s="5" cm="1">
         <f t="array" ref="R54">INDEX([1]table1!P:P,MATCH(1,($A$46=[1]table1!$B:$B)*($A54=[1]table1!$C:$C),0))</f>
@@ -6224,54 +6224,54 @@
       <c r="A55" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="13" cm="1">
+      <c r="B55" s="11" cm="1">
         <f t="array" ref="B55">INDEX([1]table1!D:D,MATCH(1,($A$46=[1]table1!$B:$B)*($A55=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="C55" s="13" cm="1">
+      <c r="C55" s="11" cm="1">
         <f t="array" ref="C55">INDEX([1]table1!E:E,MATCH(1,($A$46=[1]table1!$B:$B)*($A55=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="D55" s="13" cm="1">
+      <c r="D55" s="11" cm="1">
         <f t="array" ref="D55">INDEX([1]table1!F:F,MATCH(1,($A$46=[1]table1!$B:$B)*($A55=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="13" cm="1">
+      <c r="E55" s="12"/>
+      <c r="F55" s="11" cm="1">
         <f t="array" ref="F55">INDEX([1]table1!G:G,MATCH(1,($A$46=[1]table1!$B:$B)*($A55=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="G55" s="13" cm="1">
+      <c r="G55" s="11" cm="1">
         <f t="array" ref="G55">INDEX([1]table1!H:H,MATCH(1,($A$46=[1]table1!$B:$B)*($A55=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="H55" s="13" cm="1">
+      <c r="H55" s="11" cm="1">
         <f t="array" ref="H55">INDEX([1]table1!I:I,MATCH(1,($A$46=[1]table1!$B:$B)*($A55=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
       <c r="J55" s="5" cm="1">
         <f t="array" ref="J55">INDEX([1]table1!J:J,MATCH(1,($A$46=[1]table1!$B:$B)*($A55=[1]table1!$C:$C),0))</f>
-        <v>20.8</v>
+        <v>24.7</v>
       </c>
       <c r="K55" s="5" cm="1">
         <f t="array" ref="K55">INDEX([1]table1!K:K,MATCH(1,($A$46=[1]table1!$B:$B)*($A55=[1]table1!$C:$C),0))</f>
-        <v>12.6</v>
+        <v>15.9</v>
       </c>
       <c r="L55" s="5" cm="1">
         <f t="array" ref="L55">INDEX([1]table1!L:L,MATCH(1,($A$46=[1]table1!$B:$B)*($A55=[1]table1!$C:$C),0))</f>
-        <v>37.200000000000003</v>
+        <v>41.5</v>
       </c>
       <c r="N55" s="5" cm="1">
         <f t="array" ref="N55">INDEX([1]table1!M:M,MATCH(1,($A$46=[1]table1!$B:$B)*($A55=[1]table1!$C:$C),0))</f>
-        <v>4.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="O55" s="5" cm="1">
         <f t="array" ref="O55">INDEX([1]table1!N:N,MATCH(1,($A$46=[1]table1!$B:$B)*($A55=[1]table1!$C:$C),0))</f>
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P55" s="5" cm="1">
         <f t="array" ref="P55">INDEX([1]table1!O:O,MATCH(1,($A$46=[1]table1!$B:$B)*($A55=[1]table1!$C:$C),0))</f>
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="R55" s="5" cm="1">
         <f t="array" ref="R55">INDEX([1]table1!P:P,MATCH(1,($A$46=[1]table1!$B:$B)*($A55=[1]table1!$C:$C),0))</f>
@@ -6303,54 +6303,54 @@
       <c r="A56" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="13" cm="1">
+      <c r="B56" s="11" cm="1">
         <f t="array" ref="B56">INDEX([1]table1!D:D,MATCH(1,($A$46=[1]table1!$B:$B)*($A56=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="C56" s="13" cm="1">
+      <c r="C56" s="11" cm="1">
         <f t="array" ref="C56">INDEX([1]table1!E:E,MATCH(1,($A$46=[1]table1!$B:$B)*($A56=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="D56" s="13" cm="1">
+      <c r="D56" s="11" cm="1">
         <f t="array" ref="D56">INDEX([1]table1!F:F,MATCH(1,($A$46=[1]table1!$B:$B)*($A56=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="13" cm="1">
+      <c r="E56" s="12"/>
+      <c r="F56" s="11" cm="1">
         <f t="array" ref="F56">INDEX([1]table1!G:G,MATCH(1,($A$46=[1]table1!$B:$B)*($A56=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="G56" s="13" cm="1">
+      <c r="G56" s="11" cm="1">
         <f t="array" ref="G56">INDEX([1]table1!H:H,MATCH(1,($A$46=[1]table1!$B:$B)*($A56=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="H56" s="13" cm="1">
+      <c r="H56" s="11" cm="1">
         <f t="array" ref="H56">INDEX([1]table1!I:I,MATCH(1,($A$46=[1]table1!$B:$B)*($A56=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
       <c r="J56" s="5" cm="1">
         <f t="array" ref="J56">INDEX([1]table1!J:J,MATCH(1,($A$46=[1]table1!$B:$B)*($A56=[1]table1!$C:$C),0))</f>
-        <v>23</v>
+        <v>25.3</v>
       </c>
       <c r="K56" s="5" cm="1">
         <f t="array" ref="K56">INDEX([1]table1!K:K,MATCH(1,($A$46=[1]table1!$B:$B)*($A56=[1]table1!$C:$C),0))</f>
-        <v>16</v>
+        <v>17.8</v>
       </c>
       <c r="L56" s="5" cm="1">
         <f t="array" ref="L56">INDEX([1]table1!L:L,MATCH(1,($A$46=[1]table1!$B:$B)*($A56=[1]table1!$C:$C),0))</f>
-        <v>34.6</v>
+        <v>37.1</v>
       </c>
       <c r="N56" s="5" cm="1">
         <f t="array" ref="N56">INDEX([1]table1!M:M,MATCH(1,($A$46=[1]table1!$B:$B)*($A56=[1]table1!$C:$C),0))</f>
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O56" s="5" cm="1">
         <f t="array" ref="O56">INDEX([1]table1!N:N,MATCH(1,($A$46=[1]table1!$B:$B)*($A56=[1]table1!$C:$C),0))</f>
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P56" s="5" cm="1">
         <f t="array" ref="P56">INDEX([1]table1!O:O,MATCH(1,($A$46=[1]table1!$B:$B)*($A56=[1]table1!$C:$C),0))</f>
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="R56" s="5" cm="1">
         <f t="array" ref="R56">INDEX([1]table1!P:P,MATCH(1,($A$46=[1]table1!$B:$B)*($A56=[1]table1!$C:$C),0))</f>
@@ -6382,54 +6382,54 @@
       <c r="A57" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="13" cm="1">
+      <c r="B57" s="11" cm="1">
         <f t="array" ref="B57">INDEX([1]table1!D:D,MATCH(1,($A$46=[1]table1!$B:$B)*($A57=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="C57" s="13" cm="1">
+      <c r="C57" s="11" cm="1">
         <f t="array" ref="C57">INDEX([1]table1!E:E,MATCH(1,($A$46=[1]table1!$B:$B)*($A57=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="D57" s="13" cm="1">
+      <c r="D57" s="11" cm="1">
         <f t="array" ref="D57">INDEX([1]table1!F:F,MATCH(1,($A$46=[1]table1!$B:$B)*($A57=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="13" cm="1">
+      <c r="E57" s="12"/>
+      <c r="F57" s="11" cm="1">
         <f t="array" ref="F57">INDEX([1]table1!G:G,MATCH(1,($A$46=[1]table1!$B:$B)*($A57=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="G57" s="13" cm="1">
+      <c r="G57" s="11" cm="1">
         <f t="array" ref="G57">INDEX([1]table1!H:H,MATCH(1,($A$46=[1]table1!$B:$B)*($A57=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="H57" s="13" cm="1">
+      <c r="H57" s="11" cm="1">
         <f t="array" ref="H57">INDEX([1]table1!I:I,MATCH(1,($A$46=[1]table1!$B:$B)*($A57=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
       <c r="J57" s="5" cm="1">
         <f t="array" ref="J57">INDEX([1]table1!J:J,MATCH(1,($A$46=[1]table1!$B:$B)*($A57=[1]table1!$C:$C),0))</f>
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K57" s="5" cm="1">
         <f t="array" ref="K57">INDEX([1]table1!K:K,MATCH(1,($A$46=[1]table1!$B:$B)*($A57=[1]table1!$C:$C),0))</f>
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L57" s="5" cm="1">
         <f t="array" ref="L57">INDEX([1]table1!L:L,MATCH(1,($A$46=[1]table1!$B:$B)*($A57=[1]table1!$C:$C),0))</f>
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="N57" s="5" cm="1">
         <f t="array" ref="N57">INDEX([1]table1!M:M,MATCH(1,($A$46=[1]table1!$B:$B)*($A57=[1]table1!$C:$C),0))</f>
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O57" s="5" cm="1">
         <f t="array" ref="O57">INDEX([1]table1!N:N,MATCH(1,($A$46=[1]table1!$B:$B)*($A57=[1]table1!$C:$C),0))</f>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P57" s="5" cm="1">
         <f t="array" ref="P57">INDEX([1]table1!O:O,MATCH(1,($A$46=[1]table1!$B:$B)*($A57=[1]table1!$C:$C),0))</f>
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R57" s="5" cm="1">
         <f t="array" ref="R57">INDEX([1]table1!P:P,MATCH(1,($A$46=[1]table1!$B:$B)*($A57=[1]table1!$C:$C),0))</f>
@@ -6459,13 +6459,13 @@
     </row>
     <row r="58" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
       <c r="I58" s="8"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
@@ -6485,13 +6485,13 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
       <c r="I59" s="2"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -6513,54 +6513,54 @@
       <c r="A60" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="13" cm="1">
+      <c r="B60" s="11" cm="1">
         <f t="array" ref="B60">INDEX([1]table1!D:D,MATCH(1,($A$46=[1]table1!$B:$B)*($A60=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="C60" s="13" cm="1">
+      <c r="C60" s="11" cm="1">
         <f t="array" ref="C60">INDEX([1]table1!E:E,MATCH(1,($A$46=[1]table1!$B:$B)*($A60=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="D60" s="13" cm="1">
+      <c r="D60" s="11" cm="1">
         <f t="array" ref="D60">INDEX([1]table1!F:F,MATCH(1,($A$46=[1]table1!$B:$B)*($A60=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="E60" s="14"/>
-      <c r="F60" s="13" cm="1">
+      <c r="E60" s="12"/>
+      <c r="F60" s="11" cm="1">
         <f t="array" ref="F60">INDEX([1]table1!G:G,MATCH(1,($A$46=[1]table1!$B:$B)*($A60=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="G60" s="13" cm="1">
+      <c r="G60" s="11" cm="1">
         <f t="array" ref="G60">INDEX([1]table1!H:H,MATCH(1,($A$46=[1]table1!$B:$B)*($A60=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="H60" s="13" cm="1">
+      <c r="H60" s="11" cm="1">
         <f t="array" ref="H60">INDEX([1]table1!I:I,MATCH(1,($A$46=[1]table1!$B:$B)*($A60=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
       <c r="J60" s="5" cm="1">
         <f t="array" ref="J60">INDEX([1]table1!J:J,MATCH(1,($A$46=[1]table1!$B:$B)*($A60=[1]table1!$C:$C),0))</f>
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="K60" s="5" cm="1">
         <f t="array" ref="K60">INDEX([1]table1!K:K,MATCH(1,($A$46=[1]table1!$B:$B)*($A60=[1]table1!$C:$C),0))</f>
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="L60" s="5" cm="1">
         <f t="array" ref="L60">INDEX([1]table1!L:L,MATCH(1,($A$46=[1]table1!$B:$B)*($A60=[1]table1!$C:$C),0))</f>
-        <v>8.8000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="N60" s="5" cm="1">
         <f t="array" ref="N60">INDEX([1]table1!M:M,MATCH(1,($A$46=[1]table1!$B:$B)*($A60=[1]table1!$C:$C),0))</f>
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="O60" s="5" cm="1">
         <f t="array" ref="O60">INDEX([1]table1!N:N,MATCH(1,($A$46=[1]table1!$B:$B)*($A60=[1]table1!$C:$C),0))</f>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P60" s="5" cm="1">
         <f t="array" ref="P60">INDEX([1]table1!O:O,MATCH(1,($A$46=[1]table1!$B:$B)*($A60=[1]table1!$C:$C),0))</f>
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R60" s="5" cm="1">
         <f t="array" ref="R60">INDEX([1]table1!P:P,MATCH(1,($A$46=[1]table1!$B:$B)*($A60=[1]table1!$C:$C),0))</f>
@@ -6592,54 +6592,54 @@
       <c r="A61" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="13" cm="1">
+      <c r="B61" s="11" cm="1">
         <f t="array" ref="B61">INDEX([1]table1!D:D,MATCH(1,($A$46=[1]table1!$B:$B)*($A61=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="C61" s="13" cm="1">
+      <c r="C61" s="11" cm="1">
         <f t="array" ref="C61">INDEX([1]table1!E:E,MATCH(1,($A$46=[1]table1!$B:$B)*($A61=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="D61" s="13" cm="1">
+      <c r="D61" s="11" cm="1">
         <f t="array" ref="D61">INDEX([1]table1!F:F,MATCH(1,($A$46=[1]table1!$B:$B)*($A61=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="13" cm="1">
+      <c r="E61" s="12"/>
+      <c r="F61" s="11" cm="1">
         <f t="array" ref="F61">INDEX([1]table1!G:G,MATCH(1,($A$46=[1]table1!$B:$B)*($A61=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="G61" s="13" cm="1">
+      <c r="G61" s="11" cm="1">
         <f t="array" ref="G61">INDEX([1]table1!H:H,MATCH(1,($A$46=[1]table1!$B:$B)*($A61=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="H61" s="13" cm="1">
+      <c r="H61" s="11" cm="1">
         <f t="array" ref="H61">INDEX([1]table1!I:I,MATCH(1,($A$46=[1]table1!$B:$B)*($A61=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
       <c r="J61" s="5" cm="1">
         <f t="array" ref="J61">INDEX([1]table1!J:J,MATCH(1,($A$46=[1]table1!$B:$B)*($A61=[1]table1!$C:$C),0))</f>
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="K61" s="5" cm="1">
         <f t="array" ref="K61">INDEX([1]table1!K:K,MATCH(1,($A$46=[1]table1!$B:$B)*($A61=[1]table1!$C:$C),0))</f>
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L61" s="5" cm="1">
         <f t="array" ref="L61">INDEX([1]table1!L:L,MATCH(1,($A$46=[1]table1!$B:$B)*($A61=[1]table1!$C:$C),0))</f>
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="N61" s="5" cm="1">
         <f t="array" ref="N61">INDEX([1]table1!M:M,MATCH(1,($A$46=[1]table1!$B:$B)*($A61=[1]table1!$C:$C),0))</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="O61" s="5" cm="1">
         <f t="array" ref="O61">INDEX([1]table1!N:N,MATCH(1,($A$46=[1]table1!$B:$B)*($A61=[1]table1!$C:$C),0))</f>
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="P61" s="5" cm="1">
         <f t="array" ref="P61">INDEX([1]table1!O:O,MATCH(1,($A$46=[1]table1!$B:$B)*($A61=[1]table1!$C:$C),0))</f>
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="R61" s="5" cm="1">
         <f t="array" ref="R61">INDEX([1]table1!P:P,MATCH(1,($A$46=[1]table1!$B:$B)*($A61=[1]table1!$C:$C),0))</f>
@@ -6671,54 +6671,54 @@
       <c r="A62" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="13" cm="1">
+      <c r="B62" s="11" cm="1">
         <f t="array" ref="B62">INDEX([1]table1!D:D,MATCH(1,($A$46=[1]table1!$B:$B)*($A62=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="C62" s="13" cm="1">
+      <c r="C62" s="11" cm="1">
         <f t="array" ref="C62">INDEX([1]table1!E:E,MATCH(1,($A$46=[1]table1!$B:$B)*($A62=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="D62" s="13" cm="1">
+      <c r="D62" s="11" cm="1">
         <f t="array" ref="D62">INDEX([1]table1!F:F,MATCH(1,($A$46=[1]table1!$B:$B)*($A62=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="13" cm="1">
+      <c r="E62" s="12"/>
+      <c r="F62" s="11" cm="1">
         <f t="array" ref="F62">INDEX([1]table1!G:G,MATCH(1,($A$46=[1]table1!$B:$B)*($A62=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="G62" s="13" cm="1">
+      <c r="G62" s="11" cm="1">
         <f t="array" ref="G62">INDEX([1]table1!H:H,MATCH(1,($A$46=[1]table1!$B:$B)*($A62=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="H62" s="13" cm="1">
+      <c r="H62" s="11" cm="1">
         <f t="array" ref="H62">INDEX([1]table1!I:I,MATCH(1,($A$46=[1]table1!$B:$B)*($A62=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
       <c r="J62" s="5" cm="1">
         <f t="array" ref="J62">INDEX([1]table1!J:J,MATCH(1,($A$46=[1]table1!$B:$B)*($A62=[1]table1!$C:$C),0))</f>
-        <v>11.4</v>
+        <v>14.7</v>
       </c>
       <c r="K62" s="5" cm="1">
         <f t="array" ref="K62">INDEX([1]table1!K:K,MATCH(1,($A$46=[1]table1!$B:$B)*($A62=[1]table1!$C:$C),0))</f>
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="L62" s="5" cm="1">
         <f t="array" ref="L62">INDEX([1]table1!L:L,MATCH(1,($A$46=[1]table1!$B:$B)*($A62=[1]table1!$C:$C),0))</f>
-        <v>19.7</v>
+        <v>23.5</v>
       </c>
       <c r="N62" s="5" cm="1">
         <f t="array" ref="N62">INDEX([1]table1!M:M,MATCH(1,($A$46=[1]table1!$B:$B)*($A62=[1]table1!$C:$C),0))</f>
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="O62" s="5" cm="1">
         <f t="array" ref="O62">INDEX([1]table1!N:N,MATCH(1,($A$46=[1]table1!$B:$B)*($A62=[1]table1!$C:$C),0))</f>
-        <v>4.4000000000000004</v>
+        <v>6.1</v>
       </c>
       <c r="P62" s="5" cm="1">
         <f t="array" ref="P62">INDEX([1]table1!O:O,MATCH(1,($A$46=[1]table1!$B:$B)*($A62=[1]table1!$C:$C),0))</f>
-        <v>9.8000000000000007</v>
+        <v>11.7</v>
       </c>
       <c r="R62" s="5" cm="1">
         <f t="array" ref="R62">INDEX([1]table1!P:P,MATCH(1,($A$46=[1]table1!$B:$B)*($A62=[1]table1!$C:$C),0))</f>
@@ -6750,54 +6750,54 @@
       <c r="A63" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="13" cm="1">
+      <c r="B63" s="11" cm="1">
         <f t="array" ref="B63">INDEX([1]table1!D:D,MATCH(1,($A$46=[1]table1!$B:$B)*($A63=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="C63" s="13" cm="1">
+      <c r="C63" s="11" cm="1">
         <f t="array" ref="C63">INDEX([1]table1!E:E,MATCH(1,($A$46=[1]table1!$B:$B)*($A63=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="D63" s="13" cm="1">
+      <c r="D63" s="11" cm="1">
         <f t="array" ref="D63">INDEX([1]table1!F:F,MATCH(1,($A$46=[1]table1!$B:$B)*($A63=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="E63" s="14"/>
-      <c r="F63" s="13" cm="1">
+      <c r="E63" s="12"/>
+      <c r="F63" s="11" cm="1">
         <f t="array" ref="F63">INDEX([1]table1!G:G,MATCH(1,($A$46=[1]table1!$B:$B)*($A63=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="G63" s="13" cm="1">
+      <c r="G63" s="11" cm="1">
         <f t="array" ref="G63">INDEX([1]table1!H:H,MATCH(1,($A$46=[1]table1!$B:$B)*($A63=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="H63" s="13" cm="1">
+      <c r="H63" s="11" cm="1">
         <f t="array" ref="H63">INDEX([1]table1!I:I,MATCH(1,($A$46=[1]table1!$B:$B)*($A63=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
       <c r="J63" s="5" cm="1">
         <f t="array" ref="J63">INDEX([1]table1!J:J,MATCH(1,($A$46=[1]table1!$B:$B)*($A63=[1]table1!$C:$C),0))</f>
-        <v>8.9</v>
+        <v>13.6</v>
       </c>
       <c r="K63" s="5" cm="1">
         <f t="array" ref="K63">INDEX([1]table1!K:K,MATCH(1,($A$46=[1]table1!$B:$B)*($A63=[1]table1!$C:$C),0))</f>
-        <v>5.8</v>
+        <v>10.3</v>
       </c>
       <c r="L63" s="5" cm="1">
         <f t="array" ref="L63">INDEX([1]table1!L:L,MATCH(1,($A$46=[1]table1!$B:$B)*($A63=[1]table1!$C:$C),0))</f>
-        <v>15</v>
+        <v>19.7</v>
       </c>
       <c r="N63" s="5" cm="1">
         <f t="array" ref="N63">INDEX([1]table1!M:M,MATCH(1,($A$46=[1]table1!$B:$B)*($A63=[1]table1!$C:$C),0))</f>
-        <v>5.0999999999999996</v>
+        <v>7.8</v>
       </c>
       <c r="O63" s="5" cm="1">
         <f t="array" ref="O63">INDEX([1]table1!N:N,MATCH(1,($A$46=[1]table1!$B:$B)*($A63=[1]table1!$C:$C),0))</f>
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
       <c r="P63" s="5" cm="1">
         <f t="array" ref="P63">INDEX([1]table1!O:O,MATCH(1,($A$46=[1]table1!$B:$B)*($A63=[1]table1!$C:$C),0))</f>
-        <v>7.9</v>
+        <v>10.4</v>
       </c>
       <c r="R63" s="5" cm="1">
         <f t="array" ref="R63">INDEX([1]table1!P:P,MATCH(1,($A$46=[1]table1!$B:$B)*($A63=[1]table1!$C:$C),0))</f>
@@ -6829,54 +6829,54 @@
       <c r="A64" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B64" s="13" cm="1">
+      <c r="B64" s="11" cm="1">
         <f t="array" ref="B64">INDEX([1]table1!D:D,MATCH(1,($A$46=[1]table1!$B:$B)*($A64=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="C64" s="13" cm="1">
+      <c r="C64" s="11" cm="1">
         <f t="array" ref="C64">INDEX([1]table1!E:E,MATCH(1,($A$46=[1]table1!$B:$B)*($A64=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="D64" s="13" cm="1">
+      <c r="D64" s="11" cm="1">
         <f t="array" ref="D64">INDEX([1]table1!F:F,MATCH(1,($A$46=[1]table1!$B:$B)*($A64=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="13" cm="1">
+      <c r="E64" s="12"/>
+      <c r="F64" s="11" cm="1">
         <f t="array" ref="F64">INDEX([1]table1!G:G,MATCH(1,($A$46=[1]table1!$B:$B)*($A64=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="G64" s="13" cm="1">
+      <c r="G64" s="11" cm="1">
         <f t="array" ref="G64">INDEX([1]table1!H:H,MATCH(1,($A$46=[1]table1!$B:$B)*($A64=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="H64" s="13" cm="1">
+      <c r="H64" s="11" cm="1">
         <f t="array" ref="H64">INDEX([1]table1!I:I,MATCH(1,($A$46=[1]table1!$B:$B)*($A64=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
       <c r="J64" s="5" cm="1">
         <f t="array" ref="J64">INDEX([1]table1!J:J,MATCH(1,($A$46=[1]table1!$B:$B)*($A64=[1]table1!$C:$C),0))</f>
-        <v>17.399999999999999</v>
+        <v>18.7</v>
       </c>
       <c r="K64" s="5" cm="1">
         <f t="array" ref="K64">INDEX([1]table1!K:K,MATCH(1,($A$46=[1]table1!$B:$B)*($A64=[1]table1!$C:$C),0))</f>
-        <v>12.5</v>
+        <v>13.6</v>
       </c>
       <c r="L64" s="5" cm="1">
         <f t="array" ref="L64">INDEX([1]table1!L:L,MATCH(1,($A$46=[1]table1!$B:$B)*($A64=[1]table1!$C:$C),0))</f>
-        <v>25.4</v>
+        <v>26.7</v>
       </c>
       <c r="N64" s="5" cm="1">
         <f t="array" ref="N64">INDEX([1]table1!M:M,MATCH(1,($A$46=[1]table1!$B:$B)*($A64=[1]table1!$C:$C),0))</f>
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="O64" s="5" cm="1">
         <f t="array" ref="O64">INDEX([1]table1!N:N,MATCH(1,($A$46=[1]table1!$B:$B)*($A64=[1]table1!$C:$C),0))</f>
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P64" s="5" cm="1">
         <f t="array" ref="P64">INDEX([1]table1!O:O,MATCH(1,($A$46=[1]table1!$B:$B)*($A64=[1]table1!$C:$C),0))</f>
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="R64" s="5" cm="1">
         <f t="array" ref="R64">INDEX([1]table1!P:P,MATCH(1,($A$46=[1]table1!$B:$B)*($A64=[1]table1!$C:$C),0))</f>
@@ -6908,56 +6908,56 @@
       <c r="A65" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B65" s="19" cm="1">
+      <c r="B65" s="17" cm="1">
         <f t="array" ref="B65">INDEX([1]table1!D:D,MATCH(1,($A$46=[1]table1!$B:$B)*($A65=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="C65" s="19" cm="1">
+      <c r="C65" s="17" cm="1">
         <f t="array" ref="C65">INDEX([1]table1!E:E,MATCH(1,($A$46=[1]table1!$B:$B)*($A65=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="D65" s="19" cm="1">
+      <c r="D65" s="17" cm="1">
         <f t="array" ref="D65">INDEX([1]table1!F:F,MATCH(1,($A$46=[1]table1!$B:$B)*($A65=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19" cm="1">
+      <c r="E65" s="17"/>
+      <c r="F65" s="17" cm="1">
         <f t="array" ref="F65">INDEX([1]table1!G:G,MATCH(1,($A$46=[1]table1!$B:$B)*($A65=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="G65" s="19" cm="1">
+      <c r="G65" s="17" cm="1">
         <f t="array" ref="G65">INDEX([1]table1!H:H,MATCH(1,($A$46=[1]table1!$B:$B)*($A65=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="H65" s="19" cm="1">
+      <c r="H65" s="17" cm="1">
         <f t="array" ref="H65">INDEX([1]table1!I:I,MATCH(1,($A$46=[1]table1!$B:$B)*($A65=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
       <c r="I65" s="10"/>
       <c r="J65" s="10" cm="1">
         <f t="array" ref="J65">INDEX([1]table1!J:J,MATCH(1,($A$46=[1]table1!$B:$B)*($A65=[1]table1!$C:$C),0))</f>
-        <v>15.2</v>
+        <v>16.7</v>
       </c>
       <c r="K65" s="10" cm="1">
         <f t="array" ref="K65">INDEX([1]table1!K:K,MATCH(1,($A$46=[1]table1!$B:$B)*($A65=[1]table1!$C:$C),0))</f>
-        <v>8.6999999999999993</v>
+        <v>9.9</v>
       </c>
       <c r="L65" s="10" cm="1">
         <f t="array" ref="L65">INDEX([1]table1!L:L,MATCH(1,($A$46=[1]table1!$B:$B)*($A65=[1]table1!$C:$C),0))</f>
-        <v>27.9</v>
+        <v>29.4</v>
       </c>
       <c r="M65" s="10"/>
       <c r="N65" s="10" cm="1">
         <f t="array" ref="N65">INDEX([1]table1!M:M,MATCH(1,($A$46=[1]table1!$B:$B)*($A65=[1]table1!$C:$C),0))</f>
-        <v>4.9000000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="O65" s="10" cm="1">
         <f t="array" ref="O65">INDEX([1]table1!N:N,MATCH(1,($A$46=[1]table1!$B:$B)*($A65=[1]table1!$C:$C),0))</f>
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P65" s="10" cm="1">
         <f t="array" ref="P65">INDEX([1]table1!O:O,MATCH(1,($A$46=[1]table1!$B:$B)*($A65=[1]table1!$C:$C),0))</f>
-        <v>7.9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="Q65" s="10"/>
       <c r="R65" s="10" cm="1">
@@ -6998,77 +6998,77 @@
     <row r="71" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="B72" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
+      <c r="B72" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="11" t="str">
+      <c r="J72" s="23" t="str">
         <f>J48</f>
         <v xml:space="preserve"> 2016 reallocation approach</v>
       </c>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="23"/>
+      <c r="P72" s="23"/>
       <c r="Q72" s="1"/>
-      <c r="R72" s="11" t="s">
+      <c r="R72" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11"/>
-      <c r="U72" s="11"/>
-      <c r="V72" s="11"/>
-      <c r="W72" s="11"/>
-      <c r="X72" s="11"/>
+      <c r="S72" s="23"/>
+      <c r="T72" s="23"/>
+      <c r="U72" s="23"/>
+      <c r="V72" s="23"/>
+      <c r="W72" s="23"/>
+      <c r="X72" s="23"/>
     </row>
     <row r="73" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
-      <c r="B73" s="12" t="str">
+      <c r="B73" s="24" t="str">
         <f>E70</f>
         <v>Deaths</v>
       </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
       <c r="E73" s="2"/>
-      <c r="F73" s="12" t="s">
+      <c r="F73" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
       <c r="I73" s="2"/>
-      <c r="J73" s="12" t="str">
+      <c r="J73" s="24" t="str">
         <f>B73</f>
         <v>Deaths</v>
       </c>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
       <c r="M73" s="2"/>
-      <c r="N73" s="12" t="s">
+      <c r="N73" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="O73" s="12"/>
-      <c r="P73" s="12"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
       <c r="Q73" s="2"/>
-      <c r="R73" s="12" t="str">
+      <c r="R73" s="24" t="str">
         <f>J73</f>
         <v>Deaths</v>
       </c>
-      <c r="S73" s="12"/>
-      <c r="T73" s="12"/>
+      <c r="S73" s="24"/>
+      <c r="T73" s="24"/>
       <c r="U73" s="2"/>
-      <c r="V73" s="12" t="s">
+      <c r="V73" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="W73" s="12"/>
-      <c r="X73" s="12"/>
+      <c r="W73" s="24"/>
+      <c r="X73" s="24"/>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
@@ -7136,54 +7136,54 @@
       <c r="A75" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B75" s="13" cm="1">
+      <c r="B75" s="11" cm="1">
         <f t="array" ref="B75">INDEX([1]table1!D:D,MATCH(1,($A$70=[1]table1!$B:$B)*($A75=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="C75" s="13" cm="1">
+      <c r="C75" s="11" cm="1">
         <f t="array" ref="C75">INDEX([1]table1!E:E,MATCH(1,($A$70=[1]table1!$B:$B)*($A75=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="D75" s="13" cm="1">
+      <c r="D75" s="11" cm="1">
         <f t="array" ref="D75">INDEX([1]table1!F:F,MATCH(1,($A$70=[1]table1!$B:$B)*($A75=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="E75" s="14"/>
-      <c r="F75" s="13" cm="1">
+      <c r="E75" s="12"/>
+      <c r="F75" s="11" cm="1">
         <f t="array" ref="F75">INDEX([1]table1!G:G,MATCH(1,($A$70=[1]table1!$B:$B)*($A75=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="G75" s="13" cm="1">
+      <c r="G75" s="11" cm="1">
         <f t="array" ref="G75">INDEX([1]table1!H:H,MATCH(1,($A$70=[1]table1!$B:$B)*($A75=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="H75" s="13" cm="1">
+      <c r="H75" s="11" cm="1">
         <f t="array" ref="H75">INDEX([1]table1!I:I,MATCH(1,($A$70=[1]table1!$B:$B)*($A75=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
       <c r="J75" s="5" cm="1">
         <f t="array" ref="J75">INDEX([1]table1!J:J,MATCH(1,($A$70=[1]table1!$B:$B)*($A75=[1]table1!$C:$C),0))</f>
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="K75" s="5" cm="1">
         <f t="array" ref="K75">INDEX([1]table1!K:K,MATCH(1,($A$70=[1]table1!$B:$B)*($A75=[1]table1!$C:$C),0))</f>
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L75" s="5" cm="1">
         <f t="array" ref="L75">INDEX([1]table1!L:L,MATCH(1,($A$70=[1]table1!$B:$B)*($A75=[1]table1!$C:$C),0))</f>
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="N75" s="5" cm="1">
         <f t="array" ref="N75">INDEX([1]table1!M:M,MATCH(1,($A$70=[1]table1!$B:$B)*($A75=[1]table1!$C:$C),0))</f>
-        <v>5.0999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="O75" s="5" cm="1">
         <f t="array" ref="O75">INDEX([1]table1!N:N,MATCH(1,($A$70=[1]table1!$B:$B)*($A75=[1]table1!$C:$C),0))</f>
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="P75" s="5" cm="1">
         <f t="array" ref="P75">INDEX([1]table1!O:O,MATCH(1,($A$70=[1]table1!$B:$B)*($A75=[1]table1!$C:$C),0))</f>
-        <v>9.5</v>
+        <v>9.9</v>
       </c>
       <c r="R75" s="5" cm="1">
         <f t="array" ref="R75">INDEX([1]table1!P:P,MATCH(1,($A$70=[1]table1!$B:$B)*($A75=[1]table1!$C:$C),0))</f>
@@ -7213,13 +7213,13 @@
     </row>
     <row r="76" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
       <c r="I76" s="8"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
@@ -7239,13 +7239,13 @@
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
       <c r="I77" s="2"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -7267,54 +7267,54 @@
       <c r="A78" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="13" cm="1">
+      <c r="B78" s="11" cm="1">
         <f t="array" ref="B78">INDEX([1]table1!D:D,MATCH(1,($A$70=[1]table1!$B:$B)*($A78=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="C78" s="13" cm="1">
+      <c r="C78" s="11" cm="1">
         <f t="array" ref="C78">INDEX([1]table1!E:E,MATCH(1,($A$70=[1]table1!$B:$B)*($A78=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="D78" s="13" cm="1">
+      <c r="D78" s="11" cm="1">
         <f t="array" ref="D78">INDEX([1]table1!F:F,MATCH(1,($A$70=[1]table1!$B:$B)*($A78=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="E78" s="14"/>
-      <c r="F78" s="13" cm="1">
+      <c r="E78" s="12"/>
+      <c r="F78" s="11" cm="1">
         <f t="array" ref="F78">INDEX([1]table1!G:G,MATCH(1,($A$70=[1]table1!$B:$B)*($A78=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="G78" s="13" cm="1">
+      <c r="G78" s="11" cm="1">
         <f t="array" ref="G78">INDEX([1]table1!H:H,MATCH(1,($A$70=[1]table1!$B:$B)*($A78=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="H78" s="13" cm="1">
+      <c r="H78" s="11" cm="1">
         <f t="array" ref="H78">INDEX([1]table1!I:I,MATCH(1,($A$70=[1]table1!$B:$B)*($A78=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
       <c r="J78" s="5" cm="1">
         <f t="array" ref="J78">INDEX([1]table1!J:J,MATCH(1,($A$70=[1]table1!$B:$B)*($A78=[1]table1!$C:$C),0))</f>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K78" s="5" cm="1">
         <f t="array" ref="K78">INDEX([1]table1!K:K,MATCH(1,($A$70=[1]table1!$B:$B)*($A78=[1]table1!$C:$C),0))</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L78" s="5" cm="1">
         <f t="array" ref="L78">INDEX([1]table1!L:L,MATCH(1,($A$70=[1]table1!$B:$B)*($A78=[1]table1!$C:$C),0))</f>
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N78" s="5" cm="1">
         <f t="array" ref="N78">INDEX([1]table1!M:M,MATCH(1,($A$70=[1]table1!$B:$B)*($A78=[1]table1!$C:$C),0))</f>
-        <v>9.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="O78" s="5" cm="1">
         <f t="array" ref="O78">INDEX([1]table1!N:N,MATCH(1,($A$70=[1]table1!$B:$B)*($A78=[1]table1!$C:$C),0))</f>
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="P78" s="5" cm="1">
         <f t="array" ref="P78">INDEX([1]table1!O:O,MATCH(1,($A$70=[1]table1!$B:$B)*($A78=[1]table1!$C:$C),0))</f>
-        <v>18.2</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="R78" s="5" cm="1">
         <f t="array" ref="R78">INDEX([1]table1!P:P,MATCH(1,($A$70=[1]table1!$B:$B)*($A78=[1]table1!$C:$C),0))</f>
@@ -7346,54 +7346,54 @@
       <c r="A79" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="13" cm="1">
+      <c r="B79" s="11" cm="1">
         <f t="array" ref="B79">INDEX([1]table1!D:D,MATCH(1,($A$70=[1]table1!$B:$B)*($A79=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="C79" s="13" cm="1">
+      <c r="C79" s="11" cm="1">
         <f t="array" ref="C79">INDEX([1]table1!E:E,MATCH(1,($A$70=[1]table1!$B:$B)*($A79=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="D79" s="13" cm="1">
+      <c r="D79" s="11" cm="1">
         <f t="array" ref="D79">INDEX([1]table1!F:F,MATCH(1,($A$70=[1]table1!$B:$B)*($A79=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="E79" s="14"/>
-      <c r="F79" s="13" cm="1">
+      <c r="E79" s="12"/>
+      <c r="F79" s="11" cm="1">
         <f t="array" ref="F79">INDEX([1]table1!G:G,MATCH(1,($A$70=[1]table1!$B:$B)*($A79=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="G79" s="13" cm="1">
+      <c r="G79" s="11" cm="1">
         <f t="array" ref="G79">INDEX([1]table1!H:H,MATCH(1,($A$70=[1]table1!$B:$B)*($A79=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="H79" s="13" cm="1">
+      <c r="H79" s="11" cm="1">
         <f t="array" ref="H79">INDEX([1]table1!I:I,MATCH(1,($A$70=[1]table1!$B:$B)*($A79=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
       <c r="J79" s="5" cm="1">
         <f t="array" ref="J79">INDEX([1]table1!J:J,MATCH(1,($A$70=[1]table1!$B:$B)*($A79=[1]table1!$C:$C),0))</f>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K79" s="5" cm="1">
         <f t="array" ref="K79">INDEX([1]table1!K:K,MATCH(1,($A$70=[1]table1!$B:$B)*($A79=[1]table1!$C:$C),0))</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L79" s="5" cm="1">
         <f t="array" ref="L79">INDEX([1]table1!L:L,MATCH(1,($A$70=[1]table1!$B:$B)*($A79=[1]table1!$C:$C),0))</f>
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N79" s="5" cm="1">
         <f t="array" ref="N79">INDEX([1]table1!M:M,MATCH(1,($A$70=[1]table1!$B:$B)*($A79=[1]table1!$C:$C),0))</f>
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="O79" s="5" cm="1">
         <f t="array" ref="O79">INDEX([1]table1!N:N,MATCH(1,($A$70=[1]table1!$B:$B)*($A79=[1]table1!$C:$C),0))</f>
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="P79" s="5" cm="1">
         <f t="array" ref="P79">INDEX([1]table1!O:O,MATCH(1,($A$70=[1]table1!$B:$B)*($A79=[1]table1!$C:$C),0))</f>
-        <v>9.1</v>
+        <v>9.6</v>
       </c>
       <c r="R79" s="5" cm="1">
         <f t="array" ref="R79">INDEX([1]table1!P:P,MATCH(1,($A$70=[1]table1!$B:$B)*($A79=[1]table1!$C:$C),0))</f>
@@ -7425,54 +7425,54 @@
       <c r="A80" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="13" cm="1">
+      <c r="B80" s="11" cm="1">
         <f t="array" ref="B80">INDEX([1]table1!D:D,MATCH(1,($A$70=[1]table1!$B:$B)*($A80=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="C80" s="13" cm="1">
+      <c r="C80" s="11" cm="1">
         <f t="array" ref="C80">INDEX([1]table1!E:E,MATCH(1,($A$70=[1]table1!$B:$B)*($A80=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="D80" s="13" cm="1">
+      <c r="D80" s="11" cm="1">
         <f t="array" ref="D80">INDEX([1]table1!F:F,MATCH(1,($A$70=[1]table1!$B:$B)*($A80=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="E80" s="14"/>
-      <c r="F80" s="13" cm="1">
+      <c r="E80" s="12"/>
+      <c r="F80" s="11" cm="1">
         <f t="array" ref="F80">INDEX([1]table1!G:G,MATCH(1,($A$70=[1]table1!$B:$B)*($A80=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="G80" s="13" cm="1">
+      <c r="G80" s="11" cm="1">
         <f t="array" ref="G80">INDEX([1]table1!H:H,MATCH(1,($A$70=[1]table1!$B:$B)*($A80=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="H80" s="13" cm="1">
+      <c r="H80" s="11" cm="1">
         <f t="array" ref="H80">INDEX([1]table1!I:I,MATCH(1,($A$70=[1]table1!$B:$B)*($A80=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
       <c r="J80" s="5" cm="1">
         <f t="array" ref="J80">INDEX([1]table1!J:J,MATCH(1,($A$70=[1]table1!$B:$B)*($A80=[1]table1!$C:$C),0))</f>
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K80" s="5" cm="1">
         <f t="array" ref="K80">INDEX([1]table1!K:K,MATCH(1,($A$70=[1]table1!$B:$B)*($A80=[1]table1!$C:$C),0))</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L80" s="5" cm="1">
         <f t="array" ref="L80">INDEX([1]table1!L:L,MATCH(1,($A$70=[1]table1!$B:$B)*($A80=[1]table1!$C:$C),0))</f>
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="N80" s="5" cm="1">
         <f t="array" ref="N80">INDEX([1]table1!M:M,MATCH(1,($A$70=[1]table1!$B:$B)*($A80=[1]table1!$C:$C),0))</f>
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="O80" s="5" cm="1">
         <f t="array" ref="O80">INDEX([1]table1!N:N,MATCH(1,($A$70=[1]table1!$B:$B)*($A80=[1]table1!$C:$C),0))</f>
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="P80" s="5" cm="1">
         <f t="array" ref="P80">INDEX([1]table1!O:O,MATCH(1,($A$70=[1]table1!$B:$B)*($A80=[1]table1!$C:$C),0))</f>
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="R80" s="5" cm="1">
         <f t="array" ref="R80">INDEX([1]table1!P:P,MATCH(1,($A$70=[1]table1!$B:$B)*($A80=[1]table1!$C:$C),0))</f>
@@ -7504,28 +7504,28 @@
       <c r="A81" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="13" cm="1">
+      <c r="B81" s="11" cm="1">
         <f t="array" ref="B81">INDEX([1]table1!D:D,MATCH(1,($A$70=[1]table1!$B:$B)*($A81=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="C81" s="13" cm="1">
+      <c r="C81" s="11" cm="1">
         <f t="array" ref="C81">INDEX([1]table1!E:E,MATCH(1,($A$70=[1]table1!$B:$B)*($A81=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="D81" s="13" cm="1">
+      <c r="D81" s="11" cm="1">
         <f t="array" ref="D81">INDEX([1]table1!F:F,MATCH(1,($A$70=[1]table1!$B:$B)*($A81=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="E81" s="14"/>
-      <c r="F81" s="13" cm="1">
+      <c r="E81" s="12"/>
+      <c r="F81" s="11" cm="1">
         <f t="array" ref="F81">INDEX([1]table1!G:G,MATCH(1,($A$70=[1]table1!$B:$B)*($A81=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="G81" s="13" cm="1">
+      <c r="G81" s="11" cm="1">
         <f t="array" ref="G81">INDEX([1]table1!H:H,MATCH(1,($A$70=[1]table1!$B:$B)*($A81=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="H81" s="13" cm="1">
+      <c r="H81" s="11" cm="1">
         <f t="array" ref="H81">INDEX([1]table1!I:I,MATCH(1,($A$70=[1]table1!$B:$B)*($A81=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
@@ -7543,15 +7543,15 @@
       </c>
       <c r="N81" s="5" cm="1">
         <f t="array" ref="N81">INDEX([1]table1!M:M,MATCH(1,($A$70=[1]table1!$B:$B)*($A81=[1]table1!$C:$C),0))</f>
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="O81" s="5" cm="1">
         <f t="array" ref="O81">INDEX([1]table1!N:N,MATCH(1,($A$70=[1]table1!$B:$B)*($A81=[1]table1!$C:$C),0))</f>
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P81" s="5" cm="1">
         <f t="array" ref="P81">INDEX([1]table1!O:O,MATCH(1,($A$70=[1]table1!$B:$B)*($A81=[1]table1!$C:$C),0))</f>
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="R81" s="5" cm="1">
         <f t="array" ref="R81">INDEX([1]table1!P:P,MATCH(1,($A$70=[1]table1!$B:$B)*($A81=[1]table1!$C:$C),0))</f>
@@ -7581,13 +7581,13 @@
     </row>
     <row r="82" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
       <c r="I82" s="8"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
@@ -7607,13 +7607,13 @@
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
       <c r="I83" s="2"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
@@ -7635,28 +7635,28 @@
       <c r="A84" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="13" cm="1">
+      <c r="B84" s="11" cm="1">
         <f t="array" ref="B84">INDEX([1]table1!D:D,MATCH(1,($A$70=[1]table1!$B:$B)*($A84=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="C84" s="13" cm="1">
+      <c r="C84" s="11" cm="1">
         <f t="array" ref="C84">INDEX([1]table1!E:E,MATCH(1,($A$70=[1]table1!$B:$B)*($A84=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="D84" s="13" cm="1">
+      <c r="D84" s="11" cm="1">
         <f t="array" ref="D84">INDEX([1]table1!F:F,MATCH(1,($A$70=[1]table1!$B:$B)*($A84=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="E84" s="14"/>
-      <c r="F84" s="13" cm="1">
+      <c r="E84" s="12"/>
+      <c r="F84" s="11" cm="1">
         <f t="array" ref="F84">INDEX([1]table1!G:G,MATCH(1,($A$70=[1]table1!$B:$B)*($A84=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="G84" s="13" cm="1">
+      <c r="G84" s="11" cm="1">
         <f t="array" ref="G84">INDEX([1]table1!H:H,MATCH(1,($A$70=[1]table1!$B:$B)*($A84=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="H84" s="13" cm="1">
+      <c r="H84" s="11" cm="1">
         <f t="array" ref="H84">INDEX([1]table1!I:I,MATCH(1,($A$70=[1]table1!$B:$B)*($A84=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
@@ -7674,15 +7674,15 @@
       </c>
       <c r="N84" s="5" cm="1">
         <f t="array" ref="N84">INDEX([1]table1!M:M,MATCH(1,($A$70=[1]table1!$B:$B)*($A84=[1]table1!$C:$C),0))</f>
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="O84" s="5" cm="1">
         <f t="array" ref="O84">INDEX([1]table1!N:N,MATCH(1,($A$70=[1]table1!$B:$B)*($A84=[1]table1!$C:$C),0))</f>
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P84" s="5" cm="1">
         <f t="array" ref="P84">INDEX([1]table1!O:O,MATCH(1,($A$70=[1]table1!$B:$B)*($A84=[1]table1!$C:$C),0))</f>
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="R84" s="5" cm="1">
         <f t="array" ref="R84">INDEX([1]table1!P:P,MATCH(1,($A$70=[1]table1!$B:$B)*($A84=[1]table1!$C:$C),0))</f>
@@ -7714,28 +7714,28 @@
       <c r="A85" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B85" s="13" cm="1">
+      <c r="B85" s="11" cm="1">
         <f t="array" ref="B85">INDEX([1]table1!D:D,MATCH(1,($A$70=[1]table1!$B:$B)*($A85=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="C85" s="13" cm="1">
+      <c r="C85" s="11" cm="1">
         <f t="array" ref="C85">INDEX([1]table1!E:E,MATCH(1,($A$70=[1]table1!$B:$B)*($A85=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="D85" s="13" cm="1">
+      <c r="D85" s="11" cm="1">
         <f t="array" ref="D85">INDEX([1]table1!F:F,MATCH(1,($A$70=[1]table1!$B:$B)*($A85=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="E85" s="14"/>
-      <c r="F85" s="13" cm="1">
+      <c r="E85" s="12"/>
+      <c r="F85" s="11" cm="1">
         <f t="array" ref="F85">INDEX([1]table1!G:G,MATCH(1,($A$70=[1]table1!$B:$B)*($A85=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="G85" s="13" cm="1">
+      <c r="G85" s="11" cm="1">
         <f t="array" ref="G85">INDEX([1]table1!H:H,MATCH(1,($A$70=[1]table1!$B:$B)*($A85=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="H85" s="13" cm="1">
+      <c r="H85" s="11" cm="1">
         <f t="array" ref="H85">INDEX([1]table1!I:I,MATCH(1,($A$70=[1]table1!$B:$B)*($A85=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
@@ -7753,15 +7753,15 @@
       </c>
       <c r="N85" s="5" cm="1">
         <f t="array" ref="N85">INDEX([1]table1!M:M,MATCH(1,($A$70=[1]table1!$B:$B)*($A85=[1]table1!$C:$C),0))</f>
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O85" s="5" cm="1">
         <f t="array" ref="O85">INDEX([1]table1!N:N,MATCH(1,($A$70=[1]table1!$B:$B)*($A85=[1]table1!$C:$C),0))</f>
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="P85" s="5" cm="1">
         <f t="array" ref="P85">INDEX([1]table1!O:O,MATCH(1,($A$70=[1]table1!$B:$B)*($A85=[1]table1!$C:$C),0))</f>
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="R85" s="5" cm="1">
         <f t="array" ref="R85">INDEX([1]table1!P:P,MATCH(1,($A$70=[1]table1!$B:$B)*($A85=[1]table1!$C:$C),0))</f>
@@ -7793,28 +7793,28 @@
       <c r="A86" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B86" s="13" cm="1">
+      <c r="B86" s="11" cm="1">
         <f t="array" ref="B86">INDEX([1]table1!D:D,MATCH(1,($A$70=[1]table1!$B:$B)*($A86=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="C86" s="13" cm="1">
+      <c r="C86" s="11" cm="1">
         <f t="array" ref="C86">INDEX([1]table1!E:E,MATCH(1,($A$70=[1]table1!$B:$B)*($A86=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="D86" s="13" cm="1">
+      <c r="D86" s="11" cm="1">
         <f t="array" ref="D86">INDEX([1]table1!F:F,MATCH(1,($A$70=[1]table1!$B:$B)*($A86=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="E86" s="14"/>
-      <c r="F86" s="13" cm="1">
+      <c r="E86" s="12"/>
+      <c r="F86" s="11" cm="1">
         <f t="array" ref="F86">INDEX([1]table1!G:G,MATCH(1,($A$70=[1]table1!$B:$B)*($A86=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="G86" s="13" cm="1">
+      <c r="G86" s="11" cm="1">
         <f t="array" ref="G86">INDEX([1]table1!H:H,MATCH(1,($A$70=[1]table1!$B:$B)*($A86=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="H86" s="13" cm="1">
+      <c r="H86" s="11" cm="1">
         <f t="array" ref="H86">INDEX([1]table1!I:I,MATCH(1,($A$70=[1]table1!$B:$B)*($A86=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
@@ -7824,23 +7824,23 @@
       </c>
       <c r="K86" s="5" cm="1">
         <f t="array" ref="K86">INDEX([1]table1!K:K,MATCH(1,($A$70=[1]table1!$B:$B)*($A86=[1]table1!$C:$C),0))</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="L86" s="5" cm="1">
         <f t="array" ref="L86">INDEX([1]table1!L:L,MATCH(1,($A$70=[1]table1!$B:$B)*($A86=[1]table1!$C:$C),0))</f>
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="N86" s="5" cm="1">
         <f t="array" ref="N86">INDEX([1]table1!M:M,MATCH(1,($A$70=[1]table1!$B:$B)*($A86=[1]table1!$C:$C),0))</f>
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="O86" s="5" cm="1">
         <f t="array" ref="O86">INDEX([1]table1!N:N,MATCH(1,($A$70=[1]table1!$B:$B)*($A86=[1]table1!$C:$C),0))</f>
-        <v>3.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P86" s="5" cm="1">
         <f t="array" ref="P86">INDEX([1]table1!O:O,MATCH(1,($A$70=[1]table1!$B:$B)*($A86=[1]table1!$C:$C),0))</f>
-        <v>13.5</v>
+        <v>14.4</v>
       </c>
       <c r="R86" s="5" cm="1">
         <f t="array" ref="R86">INDEX([1]table1!P:P,MATCH(1,($A$70=[1]table1!$B:$B)*($A86=[1]table1!$C:$C),0))</f>
@@ -7872,54 +7872,54 @@
       <c r="A87" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B87" s="13" cm="1">
+      <c r="B87" s="11" cm="1">
         <f t="array" ref="B87">INDEX([1]table1!D:D,MATCH(1,($A$70=[1]table1!$B:$B)*($A87=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="C87" s="13" cm="1">
+      <c r="C87" s="11" cm="1">
         <f t="array" ref="C87">INDEX([1]table1!E:E,MATCH(1,($A$70=[1]table1!$B:$B)*($A87=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="D87" s="13" cm="1">
+      <c r="D87" s="11" cm="1">
         <f t="array" ref="D87">INDEX([1]table1!F:F,MATCH(1,($A$70=[1]table1!$B:$B)*($A87=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="E87" s="14"/>
-      <c r="F87" s="13" cm="1">
+      <c r="E87" s="12"/>
+      <c r="F87" s="11" cm="1">
         <f t="array" ref="F87">INDEX([1]table1!G:G,MATCH(1,($A$70=[1]table1!$B:$B)*($A87=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="G87" s="13" cm="1">
+      <c r="G87" s="11" cm="1">
         <f t="array" ref="G87">INDEX([1]table1!H:H,MATCH(1,($A$70=[1]table1!$B:$B)*($A87=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="H87" s="13" cm="1">
+      <c r="H87" s="11" cm="1">
         <f t="array" ref="H87">INDEX([1]table1!I:I,MATCH(1,($A$70=[1]table1!$B:$B)*($A87=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
       <c r="J87" s="5" cm="1">
         <f t="array" ref="J87">INDEX([1]table1!J:J,MATCH(1,($A$70=[1]table1!$B:$B)*($A87=[1]table1!$C:$C),0))</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K87" s="5" cm="1">
         <f t="array" ref="K87">INDEX([1]table1!K:K,MATCH(1,($A$70=[1]table1!$B:$B)*($A87=[1]table1!$C:$C),0))</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L87" s="5" cm="1">
         <f t="array" ref="L87">INDEX([1]table1!L:L,MATCH(1,($A$70=[1]table1!$B:$B)*($A87=[1]table1!$C:$C),0))</f>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N87" s="5" cm="1">
         <f t="array" ref="N87">INDEX([1]table1!M:M,MATCH(1,($A$70=[1]table1!$B:$B)*($A87=[1]table1!$C:$C),0))</f>
-        <v>6.7</v>
+        <v>8.1</v>
       </c>
       <c r="O87" s="5" cm="1">
         <f t="array" ref="O87">INDEX([1]table1!N:N,MATCH(1,($A$70=[1]table1!$B:$B)*($A87=[1]table1!$C:$C),0))</f>
-        <v>3.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P87" s="5" cm="1">
         <f t="array" ref="P87">INDEX([1]table1!O:O,MATCH(1,($A$70=[1]table1!$B:$B)*($A87=[1]table1!$C:$C),0))</f>
-        <v>12.8</v>
+        <v>14.1</v>
       </c>
       <c r="R87" s="5" cm="1">
         <f t="array" ref="R87">INDEX([1]table1!P:P,MATCH(1,($A$70=[1]table1!$B:$B)*($A87=[1]table1!$C:$C),0))</f>
@@ -7951,28 +7951,28 @@
       <c r="A88" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B88" s="13" cm="1">
+      <c r="B88" s="11" cm="1">
         <f t="array" ref="B88">INDEX([1]table1!D:D,MATCH(1,($A$70=[1]table1!$B:$B)*($A88=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="C88" s="13" cm="1">
+      <c r="C88" s="11" cm="1">
         <f t="array" ref="C88">INDEX([1]table1!E:E,MATCH(1,($A$70=[1]table1!$B:$B)*($A88=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="D88" s="13" cm="1">
+      <c r="D88" s="11" cm="1">
         <f t="array" ref="D88">INDEX([1]table1!F:F,MATCH(1,($A$70=[1]table1!$B:$B)*($A88=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="E88" s="14"/>
-      <c r="F88" s="13" cm="1">
+      <c r="E88" s="12"/>
+      <c r="F88" s="11" cm="1">
         <f t="array" ref="F88">INDEX([1]table1!G:G,MATCH(1,($A$70=[1]table1!$B:$B)*($A88=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="G88" s="13" cm="1">
+      <c r="G88" s="11" cm="1">
         <f t="array" ref="G88">INDEX([1]table1!H:H,MATCH(1,($A$70=[1]table1!$B:$B)*($A88=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="H88" s="13" cm="1">
+      <c r="H88" s="11" cm="1">
         <f t="array" ref="H88">INDEX([1]table1!I:I,MATCH(1,($A$70=[1]table1!$B:$B)*($A88=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
@@ -7982,7 +7982,7 @@
       </c>
       <c r="K88" s="5" cm="1">
         <f t="array" ref="K88">INDEX([1]table1!K:K,MATCH(1,($A$70=[1]table1!$B:$B)*($A88=[1]table1!$C:$C),0))</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="L88" s="5" cm="1">
         <f t="array" ref="L88">INDEX([1]table1!L:L,MATCH(1,($A$70=[1]table1!$B:$B)*($A88=[1]table1!$C:$C),0))</f>
@@ -7990,15 +7990,15 @@
       </c>
       <c r="N88" s="5" cm="1">
         <f t="array" ref="N88">INDEX([1]table1!M:M,MATCH(1,($A$70=[1]table1!$B:$B)*($A88=[1]table1!$C:$C),0))</f>
-        <v>4.0999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="O88" s="5" cm="1">
         <f t="array" ref="O88">INDEX([1]table1!N:N,MATCH(1,($A$70=[1]table1!$B:$B)*($A88=[1]table1!$C:$C),0))</f>
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P88" s="5" cm="1">
         <f t="array" ref="P88">INDEX([1]table1!O:O,MATCH(1,($A$70=[1]table1!$B:$B)*($A88=[1]table1!$C:$C),0))</f>
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="R88" s="5" cm="1">
         <f t="array" ref="R88">INDEX([1]table1!P:P,MATCH(1,($A$70=[1]table1!$B:$B)*($A88=[1]table1!$C:$C),0))</f>
@@ -8030,28 +8030,28 @@
       <c r="A89" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B89" s="19" cm="1">
+      <c r="B89" s="17" cm="1">
         <f t="array" ref="B89">INDEX([1]table1!D:D,MATCH(1,($A$70=[1]table1!$B:$B)*($A89=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="C89" s="19" cm="1">
+      <c r="C89" s="17" cm="1">
         <f t="array" ref="C89">INDEX([1]table1!E:E,MATCH(1,($A$70=[1]table1!$B:$B)*($A89=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="D89" s="19" cm="1">
+      <c r="D89" s="17" cm="1">
         <f t="array" ref="D89">INDEX([1]table1!F:F,MATCH(1,($A$70=[1]table1!$B:$B)*($A89=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19" cm="1">
+      <c r="E89" s="17"/>
+      <c r="F89" s="17" cm="1">
         <f t="array" ref="F89">INDEX([1]table1!G:G,MATCH(1,($A$70=[1]table1!$B:$B)*($A89=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="G89" s="19" cm="1">
+      <c r="G89" s="17" cm="1">
         <f t="array" ref="G89">INDEX([1]table1!H:H,MATCH(1,($A$70=[1]table1!$B:$B)*($A89=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
-      <c r="H89" s="19" cm="1">
+      <c r="H89" s="17" cm="1">
         <f t="array" ref="H89">INDEX([1]table1!I:I,MATCH(1,($A$70=[1]table1!$B:$B)*($A89=[1]table1!$C:$C),0))</f>
         <v>0</v>
       </c>
@@ -8071,15 +8071,15 @@
       <c r="M89" s="10"/>
       <c r="N89" s="10" cm="1">
         <f t="array" ref="N89">INDEX([1]table1!M:M,MATCH(1,($A$70=[1]table1!$B:$B)*($A89=[1]table1!$C:$C),0))</f>
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="O89" s="10" cm="1">
         <f t="array" ref="O89">INDEX([1]table1!N:N,MATCH(1,($A$70=[1]table1!$B:$B)*($A89=[1]table1!$C:$C),0))</f>
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P89" s="10" cm="1">
         <f t="array" ref="P89">INDEX([1]table1!O:O,MATCH(1,($A$70=[1]table1!$B:$B)*($A89=[1]table1!$C:$C),0))</f>
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="Q89" s="10"/>
       <c r="R89" s="10" cm="1">
@@ -8111,6 +8111,33 @@
     <row r="90" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="R3:X3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="R25:X25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="J48:P48"/>
+    <mergeCell ref="R48:X48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="V49:X49"/>
     <mergeCell ref="B72:H72"/>
     <mergeCell ref="J72:P72"/>
     <mergeCell ref="R72:X72"/>
@@ -8120,33 +8147,6 @@
     <mergeCell ref="N73:P73"/>
     <mergeCell ref="R73:T73"/>
     <mergeCell ref="V73:X73"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="J48:P48"/>
-    <mergeCell ref="R48:X48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="R25:X25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="R3:X3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="V4:X4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8158,25 +8158,25 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20"/>
+      <c r="A1" s="18"/>
       <c r="B1" s="25" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
-      <c r="E1" s="20"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="25" t="s">
         <v>31</v>
       </c>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
-      <c r="I1" s="20"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="25" t="s">
         <v>24</v>
       </c>
@@ -8184,123 +8184,123 @@
       <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="8"/>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="19">
         <f>[2]table2!B4</f>
         <v>1.42</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="19">
         <f>[2]table2!C4</f>
         <v>1.06</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="19">
         <f>[2]table2!D4</f>
         <v>1.85</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="21">
+      <c r="F3" s="19">
         <f>[2]table2!E4</f>
-        <v>3.41</v>
-      </c>
-      <c r="G3" s="21">
+        <v>3.64</v>
+      </c>
+      <c r="G3" s="19">
         <f>[2]table2!F4</f>
-        <v>1.8</v>
-      </c>
-      <c r="H3" s="21">
+        <v>2.25</v>
+      </c>
+      <c r="H3" s="19">
         <f>[2]table2!G4</f>
-        <v>5.92</v>
+        <v>5.73</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="21">
+      <c r="J3" s="19">
         <f>[2]table2!H4</f>
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="K3" s="21">
+        <v>4.74</v>
+      </c>
+      <c r="K3" s="19">
         <f>[2]table2!I4</f>
-        <v>2.82</v>
-      </c>
-      <c r="L3" s="21">
+        <v>3.14</v>
+      </c>
+      <c r="L3" s="19">
         <f>[2]table2!J4</f>
-        <v>7.21</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="22">
         <f>[2]table2!B5</f>
         <v>4.2699999999999996</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="22">
         <f>[2]table2!C5</f>
         <v>3.17</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="22">
         <f>[2]table2!D5</f>
         <v>5.55</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="24">
+      <c r="F4" s="22">
         <f>[2]table2!E5</f>
-        <v>10.24</v>
-      </c>
-      <c r="G4" s="24">
+        <v>10.93</v>
+      </c>
+      <c r="G4" s="22">
         <f>[2]table2!F5</f>
-        <v>5.4</v>
-      </c>
-      <c r="H4" s="24">
+        <v>6.76</v>
+      </c>
+      <c r="H4" s="22">
         <f>[2]table2!G5</f>
-        <v>17.75</v>
+        <v>17.2</v>
       </c>
       <c r="I4" s="9"/>
-      <c r="J4" s="24">
+      <c r="J4" s="22">
         <f>[2]table2!H5</f>
-        <v>13.92</v>
-      </c>
-      <c r="K4" s="24">
+        <v>14.22</v>
+      </c>
+      <c r="K4" s="22">
         <f>[2]table2!I5</f>
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="L4" s="24">
+        <v>9.42</v>
+      </c>
+      <c r="L4" s="22">
         <f>[2]table2!J5</f>
-        <v>21.62</v>
+        <v>20.71</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -8318,26 +8318,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA4EF7B-094E-474F-9CAC-22DDFD767C5A}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20"/>
+      <c r="A1" s="18"/>
       <c r="B1" s="25" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
-      <c r="E1" s="20"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="25" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
-      <c r="I1" s="20"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="25" t="s">
         <v>24</v>
       </c>
@@ -8345,123 +8345,123 @@
       <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="8"/>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="19">
         <f>[3]table_appendix!B4</f>
         <v>0.13</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="19">
         <f>[3]table_appendix!C4</f>
         <v>0.09</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="19">
         <f>[3]table_appendix!D4</f>
         <v>0.16</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="21">
+      <c r="F3" s="19">
         <f>[3]table_appendix!E4</f>
-        <v>0.3</v>
-      </c>
-      <c r="G3" s="21">
+        <v>0.32</v>
+      </c>
+      <c r="G3" s="19">
         <f>[3]table_appendix!F4</f>
-        <v>0.16</v>
-      </c>
-      <c r="H3" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="19">
         <f>[3]table_appendix!G4</f>
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="21">
+      <c r="J3" s="19">
         <f>[3]table_appendix!H4</f>
-        <v>0.41</v>
-      </c>
-      <c r="K3" s="21">
+        <v>0.42</v>
+      </c>
+      <c r="K3" s="19">
         <f>[3]table_appendix!I4</f>
-        <v>0.25</v>
-      </c>
-      <c r="L3" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L3" s="19">
         <f>[3]table_appendix!J4</f>
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="22">
         <f>[3]table_appendix!B5</f>
         <v>0.63</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="22">
         <f>[3]table_appendix!C5</f>
         <v>0.46</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="22">
         <f>[3]table_appendix!D5</f>
         <v>0.82</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="24">
+      <c r="F4" s="22">
         <f>[3]table_appendix!E5</f>
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="24">
+        <v>1.61</v>
+      </c>
+      <c r="G4" s="22">
         <f>[3]table_appendix!F5</f>
-        <v>0.79</v>
-      </c>
-      <c r="H4" s="24">
+        <v>0.99</v>
+      </c>
+      <c r="H4" s="22">
         <f>[3]table_appendix!G5</f>
-        <v>2.61</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="I4" s="9"/>
-      <c r="J4" s="24">
+      <c r="J4" s="22">
         <f>[3]table_appendix!H5</f>
-        <v>2.04</v>
-      </c>
-      <c r="K4" s="24">
+        <v>2.09</v>
+      </c>
+      <c r="K4" s="22">
         <f>[3]table_appendix!I5</f>
-        <v>1.24</v>
-      </c>
-      <c r="L4" s="24">
+        <v>1.38</v>
+      </c>
+      <c r="L4" s="22">
         <f>[3]table_appendix!J5</f>
-        <v>3.18</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
